--- a/etc/FixData.xlsx
+++ b/etc/FixData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuren\Desktop\Unity\プロジェクト\project_RPG1st\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2502EE7-C415-4AF3-BECC-C70EADF066B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3579A8-7CAC-41AC-86B5-D8C3654F70E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{5F2CB1C0-275E-41A8-8DB9-61B0C18B38B9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5F2CB1C0-275E-41A8-8DB9-61B0C18B38B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy_Output" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="267">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -405,10 +405,6 @@
   </si>
   <si>
     <t>スキル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>///</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -498,29 +494,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>暴君海魔クラーケン</t>
-    <rPh sb="0" eb="2">
-      <t>ボウクン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>マ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>災厄邪竜ハイドラ</t>
-    <rPh sb="0" eb="2">
-      <t>サイヤク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジャリュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ジャック</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -537,10 +510,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パウロ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ロール</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -559,10 +528,6 @@
   </si>
   <si>
     <t>フランク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チャールズ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -790,26 +755,6 @@
   <si>
     <t>effect</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>boss1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>boss2</t>
-  </si>
-  <si>
-    <t>boss3</t>
-  </si>
-  <si>
-    <t>boss4</t>
-  </si>
-  <si>
-    <t>bossSp1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bossSp2</t>
   </si>
   <si>
     <t>ファイアボルト</t>
@@ -855,10 +800,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ライトニングレイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ブレイジングストーム</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1055,10 +996,6 @@
   </si>
   <si>
     <t>resurrection</t>
-  </si>
-  <si>
-    <t>フレイムバッシュ</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>浄化の雨</t>
@@ -1196,13 +1133,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>黒蛇撃</t>
-    <rPh sb="0" eb="3">
-      <t>コクジャゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>聖光撃</t>
     <rPh sb="0" eb="3">
       <t>セイコウゲキ</t>
@@ -1210,12 +1140,126 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>地壊撃</t>
+    <t>ストーンバレット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロックキャノン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラピッドレーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メテオインパクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メディア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイケル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暴君海魔ハイドラ</t>
+    <rPh sb="0" eb="2">
+      <t>ボウクン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>systematic</t>
+  </si>
+  <si>
+    <t>憑魔傀骸イブリース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インフェルノ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンペスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アースクエイク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>破滅の光</t>
+    <rPh sb="0" eb="2">
+      <t>ハメツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒカリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イクリプス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェイタルウェーブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライジングスピア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーバーヒート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シールドバッシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毒の泡</t>
     <rPh sb="0" eb="1">
-      <t>チ</t>
+      <t>ドク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル3</t>
+  </si>
+  <si>
+    <t>スキル3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒呪撃</t>
+    <rPh sb="0" eb="1">
+      <t>クロ</t>
     </rPh>
     <rPh sb="1" eb="2">
-      <t>カイ</t>
+      <t>ノロイ</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>ゲキ</t>
@@ -1223,19 +1267,176 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ストーンバレット</t>
+    <t>黒呪撃</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ロックキャノン</t>
+    <t>地面撃</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゲキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ラピッドレーザー</t>
+    <t>53/54/55/56</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メテオインパクト</t>
+    <t>57/58/59/60</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>61/62/63/64</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>65/66/67/68</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>69/70/71/72</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>73/74/75/76</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冷気を纏った一撃を放つ。</t>
+    <rPh sb="0" eb="2">
+      <t>レイキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マト</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチゲキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盾を正面に向け、突進する。</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トッシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雷を纏った一撃を放つ。</t>
+    <rPh sb="0" eb="1">
+      <t>イカヅチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マト</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチゲキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呪いを帯びた一撃を放つ。</t>
+    <rPh sb="0" eb="1">
+      <t>ノロ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチゲキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーは敵を攻撃した。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渾身の一撃を放つ。</t>
+    <rPh sb="0" eb="2">
+      <t>コンシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御を捨て、全力の一撃を放つ。</t>
+    <rPh sb="0" eb="2">
+      <t>ボウギョ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゼンリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチゲキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いくつもの火球が相手に襲い掛かる。</t>
+    <rPh sb="5" eb="7">
+      <t>カキュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目にもとまらぬ速さで光線が放たれる。</t>
+    <rPh sb="0" eb="1">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハナ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1355,7 +1556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1389,35 +1590,14 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="28">
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1858,6 +2038,30 @@
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1945,26 +2149,26 @@
   </sortState>
   <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{9208A7DC-5607-455A-8070-C80C076C943C}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{72F570E0-1FB3-49D8-BEC5-57258C80DCF2}" name="HP" totalsRowFunction="custom" totalsRowDxfId="7">
+    <tableColumn id="2" xr3:uid="{72F570E0-1FB3-49D8-BEC5-57258C80DCF2}" name="HP" totalsRowFunction="custom" totalsRowDxfId="27">
       <totalsRowFormula>AVERAGE(B2:B11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6E930038-1C4D-4769-86E6-B078D63FCA49}" name="MP" totalsRowFunction="custom" totalsRowDxfId="6">
+    <tableColumn id="3" xr3:uid="{6E930038-1C4D-4769-86E6-B078D63FCA49}" name="MP" totalsRowFunction="custom" totalsRowDxfId="26">
       <totalsRowFormula>AVERAGE(C2:C11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A80460F1-FB7B-4616-A978-EBD1562950F3}" name="SP" totalsRowDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{A6CD8D02-032C-4C38-98E2-FF4F43A46633}" name="筋力" totalsRowFunction="custom" totalsRowDxfId="4">
+    <tableColumn id="4" xr3:uid="{A80460F1-FB7B-4616-A978-EBD1562950F3}" name="SP" totalsRowDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{A6CD8D02-032C-4C38-98E2-FF4F43A46633}" name="筋力" totalsRowFunction="custom" totalsRowDxfId="24">
       <totalsRowFormula>AVERAGE(E2:E11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5BFDC6DC-CA37-4D73-BC6B-954CDB61102C}" name="耐久" totalsRowFunction="custom" totalsRowDxfId="3">
+    <tableColumn id="6" xr3:uid="{5BFDC6DC-CA37-4D73-BC6B-954CDB61102C}" name="耐久" totalsRowFunction="custom" totalsRowDxfId="23">
       <totalsRowFormula>AVERAGE(F2:F11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{40D7BA08-4077-480E-96D3-9CB28F33260A}" name="知力" totalsRowFunction="custom" totalsRowDxfId="2">
+    <tableColumn id="7" xr3:uid="{40D7BA08-4077-480E-96D3-9CB28F33260A}" name="知力" totalsRowFunction="custom" totalsRowDxfId="22">
       <totalsRowFormula>AVERAGE(G2:G11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BCAAACC7-1E42-40BE-883C-F890B9BABAF3}" name="精神" totalsRowFunction="custom" totalsRowDxfId="1">
+    <tableColumn id="8" xr3:uid="{BCAAACC7-1E42-40BE-883C-F890B9BABAF3}" name="精神" totalsRowFunction="custom" totalsRowDxfId="21">
       <totalsRowFormula>AVERAGE(H2:H11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{4CD3D9D3-B4AF-4BB5-A3DD-E248979AFF85}" name="敏捷" totalsRowFunction="custom" totalsRowDxfId="0">
+    <tableColumn id="9" xr3:uid="{4CD3D9D3-B4AF-4BB5-A3DD-E248979AFF85}" name="敏捷" totalsRowFunction="custom" totalsRowDxfId="20">
       <totalsRowFormula>AVERAGE(I2:I11)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{2271103C-7DB8-45EB-BE68-BACD1BA41C2D}" name="幸運"/>
@@ -2006,29 +2210,29 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2375919F-F344-483D-A5CE-76827DC625E2}" name="テーブル5" displayName="テーブル5" ref="A1:T54" totalsRowShown="0">
-  <autoFilter ref="A1:T54" xr:uid="{2375919F-F344-483D-A5CE-76827DC625E2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2375919F-F344-483D-A5CE-76827DC625E2}" name="テーブル5" displayName="テーブル5" ref="A1:T78" totalsRowShown="0">
+  <autoFilter ref="A1:T78" xr:uid="{2375919F-F344-483D-A5CE-76827DC625E2}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{8A3B36B6-E19F-408E-9E1A-6AF96BB3825C}" name="ID" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{93DEBBF0-5B85-4504-AAE9-A087BACAD46F}" name="名前" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{F80D6E0A-55F5-47BA-9D7F-6D9DEC03816B}" name="消費ステータス" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{65F327EE-16F7-4043-BF11-792E6F803F22}" name="消費量" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{468C3454-DBAB-4036-9C8B-E7F7B6B29255}" name="攻撃側ステータス" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{CE744A2A-3551-4EA1-8E7E-79695E84F5FC}" name="攻撃側倍率" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{AC7E7525-B83E-4E4F-8884-642838E3987E}" name="防御側ステータス" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{10867379-86D5-4F19-849F-2E29FC4BD89D}" name="防御側倍率" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{4B1DBEC2-D9AC-444D-8DE6-3F22B6F020E4}" name="属性" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{EC7E15CD-3E1D-4EFB-BB56-699F5076534E}" name="分類" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{5EAACCC9-87CE-4705-8045-9234A10105A4}" name="使用対象" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{B2D41BD3-D622-4B5A-94D3-13491A158CC2}" name="命中率" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{7C0FB7B4-CCD3-4665-B640-4DE31E52C534}" name="会心確率" dataDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{D3E669DC-8135-438B-A9B6-FCCFA3A985D5}" name="会心倍率" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{76158C2E-52B5-493A-96D4-9739E24088F7}" name="追加効果" dataDxfId="13"/>
-    <tableColumn id="16" xr3:uid="{E1623B23-7061-48CD-9DA7-A46BAC64755D}" name="説明文" dataDxfId="12"/>
-    <tableColumn id="17" xr3:uid="{481648C6-F72E-4633-B8DB-E463325F3893}" name="フレーバーテキスト" dataDxfId="11"/>
-    <tableColumn id="18" xr3:uid="{03F28426-D33F-4022-849D-00B939F36E9D}" name="使用時テキスト" dataDxfId="10"/>
-    <tableColumn id="19" xr3:uid="{6A4FBD81-8B77-47E0-AAAA-FE71B16A2476}" name="画像リンク" dataDxfId="9"/>
-    <tableColumn id="20" xr3:uid="{C392038A-8430-4B62-922F-5CA7EAEA6478}" name="エフェクトリンク" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{8A3B36B6-E19F-408E-9E1A-6AF96BB3825C}" name="ID" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{93DEBBF0-5B85-4504-AAE9-A087BACAD46F}" name="名前" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{F80D6E0A-55F5-47BA-9D7F-6D9DEC03816B}" name="消費ステータス" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{65F327EE-16F7-4043-BF11-792E6F803F22}" name="消費量" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{468C3454-DBAB-4036-9C8B-E7F7B6B29255}" name="攻撃側ステータス" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{CE744A2A-3551-4EA1-8E7E-79695E84F5FC}" name="攻撃側倍率" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{AC7E7525-B83E-4E4F-8884-642838E3987E}" name="防御側ステータス" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{10867379-86D5-4F19-849F-2E29FC4BD89D}" name="防御側倍率" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{4B1DBEC2-D9AC-444D-8DE6-3F22B6F020E4}" name="属性" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{EC7E15CD-3E1D-4EFB-BB56-699F5076534E}" name="分類" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{5EAACCC9-87CE-4705-8045-9234A10105A4}" name="使用対象" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{B2D41BD3-D622-4B5A-94D3-13491A158CC2}" name="命中率" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{7C0FB7B4-CCD3-4665-B640-4DE31E52C534}" name="会心確率" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{D3E669DC-8135-438B-A9B6-FCCFA3A985D5}" name="会心倍率" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{76158C2E-52B5-493A-96D4-9739E24088F7}" name="追加効果" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{E1623B23-7061-48CD-9DA7-A46BAC64755D}" name="説明文" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{481648C6-F72E-4633-B8DB-E463325F3893}" name="フレーバーテキスト" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{03F28426-D33F-4022-849D-00B939F36E9D}" name="使用時テキスト" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{6A4FBD81-8B77-47E0-AAAA-FE71B16A2476}" name="画像リンク" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{C392038A-8430-4B62-922F-5CA7EAEA6478}" name="エフェクトリンク" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2353,7 +2557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D2B060-CF3F-44A2-86D2-886E450B6393}">
   <dimension ref="A1:AL7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -2449,37 +2653,37 @@
         <v>1</v>
       </c>
       <c r="AB1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC1" t="s">
         <v>69</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>70</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>71</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>72</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>73</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>74</v>
       </c>
-      <c r="AH1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>75</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>76</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:38">
@@ -2616,11 +2820,11 @@
       </c>
       <c r="AH2" t="str">
         <f>VLOOKUP($Z2,Enemy!$A$1:$M$7,COLUMN(AH2)-COLUMN($Z2)+1,FALSE)</f>
-        <v>boss1</v>
+        <v>random</v>
       </c>
       <c r="AI2" t="str">
         <f>VLOOKUP($Z2,Enemy!$A$1:$M$7,COLUMN(AI2)-COLUMN($Z2)+1,FALSE)</f>
-        <v>///</v>
+        <v>53/54/55/56</v>
       </c>
       <c r="AJ2">
         <f>VLOOKUP($Z2,Enemy!$A$1:$M$7,COLUMN(AJ2)-COLUMN($Z2)+1,FALSE)</f>
@@ -2741,7 +2945,7 @@
       </c>
       <c r="AA3" t="str">
         <f>VLOOKUP($Z3,Enemy!$A$1:$M$7,COLUMN(AA3)-COLUMN($Z3)+1,FALSE)</f>
-        <v>暴君海魔クラーケン</v>
+        <v>暴君海魔ハイドラ</v>
       </c>
       <c r="AB3">
         <f>VLOOKUP($Z3,Enemy!$A$1:$M$7,COLUMN(AB3)-COLUMN($Z3)+1,FALSE)</f>
@@ -2769,11 +2973,11 @@
       </c>
       <c r="AH3" t="str">
         <f>VLOOKUP($Z3,Enemy!$A$1:$M$7,COLUMN(AH3)-COLUMN($Z3)+1,FALSE)</f>
-        <v>boss2</v>
+        <v>systematic</v>
       </c>
       <c r="AI3" t="str">
         <f>VLOOKUP($Z3,Enemy!$A$1:$M$7,COLUMN(AI3)-COLUMN($Z3)+1,FALSE)</f>
-        <v>///</v>
+        <v>57/58/59/60</v>
       </c>
       <c r="AJ3">
         <f>VLOOKUP($Z3,Enemy!$A$1:$M$7,COLUMN(AJ3)-COLUMN($Z3)+1,FALSE)</f>
@@ -2922,11 +3126,11 @@
       </c>
       <c r="AH4" t="str">
         <f>VLOOKUP($Z4,Enemy!$A$1:$M$7,COLUMN(AH4)-COLUMN($Z4)+1,FALSE)</f>
-        <v>boss3</v>
+        <v>random</v>
       </c>
       <c r="AI4" t="str">
         <f>VLOOKUP($Z4,Enemy!$A$1:$M$7,COLUMN(AI4)-COLUMN($Z4)+1,FALSE)</f>
-        <v>///</v>
+        <v>61/62/63/64</v>
       </c>
       <c r="AJ4">
         <f>VLOOKUP($Z4,Enemy!$A$1:$M$7,COLUMN(AJ4)-COLUMN($Z4)+1,FALSE)</f>
@@ -3075,11 +3279,11 @@
       </c>
       <c r="AH5" t="str">
         <f>VLOOKUP($Z5,Enemy!$A$1:$M$7,COLUMN(AH5)-COLUMN($Z5)+1,FALSE)</f>
-        <v>boss4</v>
+        <v>systematic</v>
       </c>
       <c r="AI5" t="str">
         <f>VLOOKUP($Z5,Enemy!$A$1:$M$7,COLUMN(AI5)-COLUMN($Z5)+1,FALSE)</f>
-        <v>///</v>
+        <v>65/66/67/68</v>
       </c>
       <c r="AJ5">
         <f>VLOOKUP($Z5,Enemy!$A$1:$M$7,COLUMN(AJ5)-COLUMN($Z5)+1,FALSE)</f>
@@ -3228,11 +3432,11 @@
       </c>
       <c r="AH6" t="str">
         <f>VLOOKUP($Z6,Enemy!$A$1:$M$7,COLUMN(AH6)-COLUMN($Z6)+1,FALSE)</f>
-        <v>bossSp1</v>
+        <v>random</v>
       </c>
       <c r="AI6" t="str">
         <f>VLOOKUP($Z6,Enemy!$A$1:$M$7,COLUMN(AI6)-COLUMN($Z6)+1,FALSE)</f>
-        <v>///</v>
+        <v>69/70/71/72</v>
       </c>
       <c r="AJ6">
         <f>VLOOKUP($Z6,Enemy!$A$1:$M$7,COLUMN(AJ6)-COLUMN($Z6)+1,FALSE)</f>
@@ -3353,7 +3557,7 @@
       </c>
       <c r="AA7" t="str">
         <f>VLOOKUP($Z7,Enemy!$A$1:$M$7,COLUMN(AA7)-COLUMN($Z7)+1,FALSE)</f>
-        <v>災厄邪竜ハイドラ</v>
+        <v>憑魔傀骸イブリース</v>
       </c>
       <c r="AB7">
         <f>VLOOKUP($Z7,Enemy!$A$1:$M$7,COLUMN(AB7)-COLUMN($Z7)+1,FALSE)</f>
@@ -3381,11 +3585,11 @@
       </c>
       <c r="AH7" t="str">
         <f>VLOOKUP($Z7,Enemy!$A$1:$M$7,COLUMN(AH7)-COLUMN($Z7)+1,FALSE)</f>
-        <v>bossSp2</v>
+        <v>systematic</v>
       </c>
       <c r="AI7" t="str">
         <f>VLOOKUP($Z7,Enemy!$A$1:$M$7,COLUMN(AI7)-COLUMN($Z7)+1,FALSE)</f>
-        <v>///</v>
+        <v>73/74/75/76</v>
       </c>
       <c r="AJ7">
         <f>VLOOKUP($Z7,Enemy!$A$1:$M$7,COLUMN(AJ7)-COLUMN($Z7)+1,FALSE)</f>
@@ -3411,7 +3615,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3474,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -3495,10 +3699,10 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>149</v>
+        <v>232</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>252</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -3515,7 +3719,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>231</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -3536,10 +3740,10 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>150</v>
+        <v>233</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>253</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -3556,7 +3760,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -3577,10 +3781,10 @@
         <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>151</v>
+        <v>232</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>254</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -3597,7 +3801,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -3618,10 +3822,10 @@
         <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>152</v>
+        <v>233</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>255</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -3638,7 +3842,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -3659,10 +3863,10 @@
         <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>153</v>
+        <v>232</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>256</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -3679,7 +3883,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>234</v>
       </c>
       <c r="C7">
         <v>30</v>
@@ -3700,10 +3904,10 @@
         <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>154</v>
+        <v>233</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>257</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -3729,7 +3933,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4347,9 +4551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56E0361-EEFB-4412-93C2-8D749FC7346C}">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
@@ -4436,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="AB1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AC1" t="s">
         <v>2</v>
@@ -4796,7 +4998,7 @@
     <row r="5" spans="1:29">
       <c r="A5">
         <f>VLOOKUP($Z5,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <f>VLOOKUP($Z5,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
@@ -4824,7 +5026,7 @@
       </c>
       <c r="H5">
         <f>VLOOKUP($Z5,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="I5">
         <f>VLOOKUP($Z5,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
@@ -4925,7 +5127,7 @@
       </c>
       <c r="D6">
         <f>VLOOKUP($Z6,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E6">
         <f>VLOOKUP($Z6,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
@@ -4933,7 +5135,7 @@
       </c>
       <c r="F6">
         <f>VLOOKUP($Z6,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G6">
         <f>VLOOKUP($Z6,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
@@ -4941,7 +5143,7 @@
       </c>
       <c r="H6">
         <f>VLOOKUP($Z6,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I6">
         <f>VLOOKUP($Z6,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
@@ -5042,11 +5244,11 @@
       </c>
       <c r="D7">
         <f>VLOOKUP($Z7,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <f>VLOOKUP($Z7,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F7">
         <f>VLOOKUP($Z7,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
@@ -5058,7 +5260,7 @@
       </c>
       <c r="H7">
         <f>VLOOKUP($Z7,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="I7">
         <f>VLOOKUP($Z7,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
@@ -5133,7 +5335,7 @@
       </c>
       <c r="AA7" t="str">
         <f>VLOOKUP(Z7,Player!$A$1:$D$11,2,FALSE)</f>
-        <v>チャールズ</v>
+        <v>クロード</v>
       </c>
       <c r="AB7" t="str">
         <f>VLOOKUP($Z7,Player!$A$1:$D$11,3,FALSE)</f>
@@ -5147,7 +5349,7 @@
     <row r="8" spans="1:29">
       <c r="A8">
         <f>VLOOKUP($Z8,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B8">
         <f>VLOOKUP($Z8,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
@@ -5163,7 +5365,7 @@
       </c>
       <c r="E8">
         <f>VLOOKUP($Z8,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F8">
         <f>VLOOKUP($Z8,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
@@ -5171,11 +5373,11 @@
       </c>
       <c r="G8">
         <f>VLOOKUP($Z8,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H8">
         <f>VLOOKUP($Z8,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I8">
         <f>VLOOKUP($Z8,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
@@ -5268,7 +5470,7 @@
       </c>
       <c r="B9">
         <f>VLOOKUP($Z9,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C9">
         <f>VLOOKUP($Z9,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
@@ -5276,11 +5478,11 @@
       </c>
       <c r="D9">
         <f>VLOOKUP($Z9,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E9">
         <f>VLOOKUP($Z9,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F9">
         <f>VLOOKUP($Z9,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
@@ -5288,7 +5490,7 @@
       </c>
       <c r="G9">
         <f>VLOOKUP($Z9,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H9">
         <f>VLOOKUP($Z9,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
@@ -5367,7 +5569,7 @@
       </c>
       <c r="AA9" t="str">
         <f>VLOOKUP(Z9,Player!$A$1:$D$11,2,FALSE)</f>
-        <v>クロード</v>
+        <v>マイケル</v>
       </c>
       <c r="AB9" t="str">
         <f>VLOOKUP($Z9,Player!$A$1:$D$11,3,FALSE)</f>
@@ -5393,7 +5595,7 @@
       </c>
       <c r="D10">
         <f>VLOOKUP($Z10,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E10">
         <f>VLOOKUP($Z10,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
@@ -5401,7 +5603,7 @@
       </c>
       <c r="F10">
         <f>VLOOKUP($Z10,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G10">
         <f>VLOOKUP($Z10,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
@@ -5409,7 +5611,7 @@
       </c>
       <c r="H10">
         <f>VLOOKUP($Z10,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="I10">
         <f>VLOOKUP($Z10,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
@@ -5484,7 +5686,7 @@
       </c>
       <c r="AA10" t="str">
         <f>VLOOKUP(Z10,Player!$A$1:$D$11,2,FALSE)</f>
-        <v>パウロ</v>
+        <v>メディア</v>
       </c>
       <c r="AB10" t="str">
         <f>VLOOKUP($Z10,Player!$A$1:$D$11,3,FALSE)</f>
@@ -5502,7 +5704,7 @@
       </c>
       <c r="B11">
         <f>VLOOKUP($Z11,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C11">
         <f>VLOOKUP($Z11,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
@@ -5510,11 +5712,11 @@
       </c>
       <c r="D11">
         <f>VLOOKUP($Z11,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E11">
         <f>VLOOKUP($Z11,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F11">
         <f>VLOOKUP($Z11,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
@@ -5526,7 +5728,7 @@
       </c>
       <c r="H11">
         <f>VLOOKUP($Z11,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I11">
         <f>VLOOKUP($Z11,Player_Status!$A$1:$Z$11,COLUMN()+1,FALSE)</f>
@@ -5623,7 +5825,7 @@
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5956,7 +6158,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C5">
         <v>130</v>
@@ -5977,7 +6179,7 @@
         <v>60</v>
       </c>
       <c r="I5">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="J5">
         <v>100</v>
@@ -6045,19 +6247,19 @@
         <v>100</v>
       </c>
       <c r="E6">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F6">
         <v>90</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H6">
         <v>90</v>
       </c>
       <c r="I6">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J6">
         <v>100</v>
@@ -6125,10 +6327,10 @@
         <v>100</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F7">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G7">
         <v>150</v>
@@ -6137,7 +6339,7 @@
         <v>95</v>
       </c>
       <c r="I7">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="J7">
         <v>100</v>
@@ -6196,7 +6398,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C8">
         <v>120</v>
@@ -6208,16 +6410,16 @@
         <v>90</v>
       </c>
       <c r="F8">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G8">
         <v>130</v>
       </c>
       <c r="H8">
+        <v>85</v>
+      </c>
+      <c r="I8">
         <v>80</v>
-      </c>
-      <c r="I8">
-        <v>100</v>
       </c>
       <c r="J8">
         <v>100</v>
@@ -6279,22 +6481,22 @@
         <v>100</v>
       </c>
       <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
         <v>90</v>
-      </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-      <c r="E9">
-        <v>90</v>
-      </c>
-      <c r="F9">
-        <v>100</v>
       </c>
       <c r="G9">
         <v>70</v>
       </c>
       <c r="H9">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I9">
         <v>130</v>
@@ -6365,19 +6567,19 @@
         <v>100</v>
       </c>
       <c r="E10">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F10">
         <v>80</v>
       </c>
       <c r="G10">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H10">
         <v>130</v>
       </c>
       <c r="I10">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="J10">
         <v>100</v>
@@ -6439,16 +6641,16 @@
         <v>100</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D11">
         <v>100</v>
       </c>
       <c r="E11">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F11">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G11">
         <v>90</v>
@@ -6457,7 +6659,7 @@
         <v>150</v>
       </c>
       <c r="I11">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="J11">
         <v>100</v>
@@ -6514,32 +6716,32 @@
     <row r="12" spans="1:26">
       <c r="B12" s="10">
         <f>AVERAGE(B2:B11)</f>
-        <v>97</v>
+        <v>96.5</v>
       </c>
       <c r="C12" s="10">
         <f t="shared" ref="C12:I12" si="0">AVERAGE(C2:C11)</f>
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="F12" s="10">
         <f t="shared" si="0"/>
-        <v>99.5</v>
+        <v>98</v>
       </c>
       <c r="G12" s="10">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>100.5</v>
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>101</v>
+        <v>100.5</v>
       </c>
       <c r="I12" s="10">
         <f t="shared" si="0"/>
-        <v>96.5</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -6635,11 +6837,11 @@
       </c>
       <c r="E16">
         <f>SUM($B$6:$I$6)-100-E6</f>
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="F16">
         <f>SUM($B$7:$I$7)-100-E7</f>
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="G16">
         <f>SUM($B$8:$I$8)-100-E8</f>
@@ -6647,15 +6849,15 @@
       </c>
       <c r="H16">
         <f>SUM($B$9:$I$9)-100-E9</f>
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="I16">
         <f>SUM($B$10:$I$10)-100-E10</f>
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="J16">
         <f>SUM($B$11:$I$11)-100-E11</f>
-        <v>610</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -6672,7 +6874,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6688,7 +6890,7 @@
         <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s">
         <v>52</v>
@@ -6702,7 +6904,7 @@
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
         <v>56</v>
@@ -6713,10 +6915,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
         <v>56</v>
@@ -6727,10 +6929,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
         <v>56</v>
@@ -6744,7 +6946,7 @@
         <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
         <v>56</v>
@@ -6755,10 +6957,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
         <v>56</v>
@@ -6769,10 +6971,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
         <v>56</v>
@@ -6783,10 +6985,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
         <v>56</v>
@@ -6797,10 +6999,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" t="s">
         <v>88</v>
-      </c>
-      <c r="C9" t="s">
-        <v>92</v>
       </c>
       <c r="D9" t="s">
         <v>56</v>
@@ -6811,10 +7013,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
         <v>56</v>
@@ -6828,7 +7030,7 @@
         <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
         <v>56</v>
@@ -6845,74 +7047,72 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5923FFC7-CA74-4813-A4B0-2DF9B9CD033A}">
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" t="s">
         <v>98</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>102</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>103</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>104</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>105</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>106</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>107</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>108</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" t="s">
         <v>109</v>
       </c>
-      <c r="M1" t="s">
-        <v>110</v>
-      </c>
-      <c r="N1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O1" t="s">
-        <v>112</v>
-      </c>
-      <c r="P1" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>76</v>
       </c>
-      <c r="R1" t="s">
-        <v>114</v>
-      </c>
-      <c r="S1" t="s">
-        <v>77</v>
-      </c>
       <c r="T1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -6985,7 +7185,7 @@
       </c>
       <c r="R2" t="str">
         <f>テーブル5[[#This Row],[使用時テキスト]]</f>
-        <v>プレイヤーは敵を攻撃した。</v>
+        <v>渾身の一撃を放つ。</v>
       </c>
       <c r="S2" t="str">
         <f>テーブル5[[#This Row],[画像リンク]]</f>
@@ -7066,7 +7266,7 @@
       </c>
       <c r="R3" t="str">
         <f>テーブル5[[#This Row],[使用時テキスト]]</f>
-        <v>プレイヤーは敵を攻撃した。</v>
+        <v>渾身の一撃を放つ。</v>
       </c>
       <c r="S3" t="str">
         <f>テーブル5[[#This Row],[画像リンク]]</f>
@@ -7309,7 +7509,7 @@
       </c>
       <c r="R6" t="str">
         <f>テーブル5[[#This Row],[使用時テキスト]]</f>
-        <v>プレイヤーは敵を攻撃した。</v>
+        <v>防御を捨て、全力の一撃を放つ。</v>
       </c>
       <c r="S6" t="str">
         <f>テーブル5[[#This Row],[画像リンク]]</f>
@@ -7326,7 +7526,7 @@
       </c>
       <c r="B7" t="str">
         <f>テーブル5[[#This Row],[名前]]</f>
-        <v>フレイムバッシュ</v>
+        <v>シールドバッシュ</v>
       </c>
       <c r="C7" t="str">
         <f>テーブル5[[#This Row],[消費ステータス]]</f>
@@ -7338,7 +7538,7 @@
       </c>
       <c r="E7" t="str">
         <f>テーブル5[[#This Row],[攻撃側ステータス]]</f>
-        <v>STR</v>
+        <v>DEF</v>
       </c>
       <c r="F7">
         <f>テーブル5[[#This Row],[攻撃側倍率]]</f>
@@ -7390,7 +7590,7 @@
       </c>
       <c r="R7" t="str">
         <f>テーブル5[[#This Row],[使用時テキスト]]</f>
-        <v>プレイヤーは敵を攻撃した。</v>
+        <v>盾を正面に向け、突進する。</v>
       </c>
       <c r="S7" t="str">
         <f>テーブル5[[#This Row],[画像リンク]]</f>
@@ -7471,7 +7671,7 @@
       </c>
       <c r="R8" t="str">
         <f>テーブル5[[#This Row],[使用時テキスト]]</f>
-        <v>プレイヤーは敵を攻撃した。</v>
+        <v>雷を纏った一撃を放つ。</v>
       </c>
       <c r="S8" t="str">
         <f>テーブル5[[#This Row],[画像リンク]]</f>
@@ -7552,7 +7752,7 @@
       </c>
       <c r="R9" t="str">
         <f>テーブル5[[#This Row],[使用時テキスト]]</f>
-        <v>プレイヤーは敵を攻撃した。</v>
+        <v>冷気を纏った一撃を放つ。</v>
       </c>
       <c r="S9" t="str">
         <f>テーブル5[[#This Row],[画像リンク]]</f>
@@ -7650,7 +7850,7 @@
       </c>
       <c r="B11" t="str">
         <f>テーブル5[[#This Row],[名前]]</f>
-        <v>地壊撃</v>
+        <v>地面撃</v>
       </c>
       <c r="C11" t="str">
         <f>テーブル5[[#This Row],[消費ステータス]]</f>
@@ -7812,7 +8012,7 @@
       </c>
       <c r="B13" t="str">
         <f>テーブル5[[#This Row],[名前]]</f>
-        <v>黒蛇撃</v>
+        <v>黒呪撃</v>
       </c>
       <c r="C13" t="str">
         <f>テーブル5[[#This Row],[消費ステータス]]</f>
@@ -7876,7 +8076,7 @@
       </c>
       <c r="R13" t="str">
         <f>テーブル5[[#This Row],[使用時テキスト]]</f>
-        <v>プレイヤーは敵を攻撃した。</v>
+        <v>呪いを帯びた一撃を放つ。</v>
       </c>
       <c r="S13" t="str">
         <f>テーブル5[[#This Row],[画像リンク]]</f>
@@ -7974,7 +8174,7 @@
       </c>
       <c r="B15" t="str">
         <f>テーブル5[[#This Row],[名前]]</f>
-        <v>ライトニングレイン</v>
+        <v>オーバーヒート</v>
       </c>
       <c r="C15" t="str">
         <f>テーブル5[[#This Row],[消費ステータス]]</f>
@@ -8200,7 +8400,7 @@
       </c>
       <c r="R17" t="str">
         <f>テーブル5[[#This Row],[使用時テキスト]]</f>
-        <v>プレイヤーは敵を攻撃した。</v>
+        <v>いくつもの火球が相手に襲い掛かる。</v>
       </c>
       <c r="S17" t="str">
         <f>テーブル5[[#This Row],[画像リンク]]</f>
@@ -9496,7 +9696,7 @@
       </c>
       <c r="R33" t="str">
         <f>テーブル5[[#This Row],[使用時テキスト]]</f>
-        <v>プレイヤーは敵を攻撃した。</v>
+        <v>目にもとまらぬ速さで光線が放たれる。</v>
       </c>
       <c r="S33" t="str">
         <f>テーブル5[[#This Row],[画像リンク]]</f>
@@ -11204,6 +11404,1950 @@
         <v>aaaaa/aa.png</v>
       </c>
       <c r="T54" t="str">
+        <f>テーブル5[[#This Row],[エフェクトリンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="str">
+        <f>テーブル5[[#This Row],[名前]]</f>
+        <v>ファイアボルト</v>
+      </c>
+      <c r="C55" t="str">
+        <f>テーブル5[[#This Row],[消費ステータス]]</f>
+        <v>MP</v>
+      </c>
+      <c r="D55">
+        <f>テーブル5[[#This Row],[消費量]]</f>
+        <v>0</v>
+      </c>
+      <c r="E55" t="str">
+        <f>テーブル5[[#This Row],[攻撃側ステータス]]</f>
+        <v>INT</v>
+      </c>
+      <c r="F55">
+        <f>テーブル5[[#This Row],[攻撃側倍率]]</f>
+        <v>3</v>
+      </c>
+      <c r="G55" t="str">
+        <f>テーブル5[[#This Row],[防御側ステータス]]</f>
+        <v>MND</v>
+      </c>
+      <c r="H55">
+        <f>テーブル5[[#This Row],[防御側倍率]]</f>
+        <v>1</v>
+      </c>
+      <c r="I55" t="str">
+        <f>テーブル5[[#This Row],[属性]]</f>
+        <v>Fire</v>
+      </c>
+      <c r="J55" t="str">
+        <f>テーブル5[[#This Row],[分類]]</f>
+        <v>Attack</v>
+      </c>
+      <c r="K55" t="str">
+        <f>テーブル5[[#This Row],[使用対象]]</f>
+        <v>ally_Once</v>
+      </c>
+      <c r="L55">
+        <f>テーブル5[[#This Row],[命中率]]</f>
+        <v>100</v>
+      </c>
+      <c r="M55">
+        <f>テーブル5[[#This Row],[会心確率]]</f>
+        <v>5</v>
+      </c>
+      <c r="N55">
+        <f>テーブル5[[#This Row],[会心倍率]]</f>
+        <v>150</v>
+      </c>
+      <c r="O55" t="str">
+        <f>テーブル5[[#This Row],[追加効果]]</f>
+        <v>none</v>
+      </c>
+      <c r="P55" t="str">
+        <f>テーブル5[[#This Row],[説明文]]</f>
+        <v>あああああああああ</v>
+      </c>
+      <c r="Q55" t="str">
+        <f>テーブル5[[#This Row],[フレーバーテキスト]]</f>
+        <v>あああああああ</v>
+      </c>
+      <c r="R55" t="str">
+        <f>テーブル5[[#This Row],[使用時テキスト]]</f>
+        <v>プレイヤーは敵を攻撃した。</v>
+      </c>
+      <c r="S55" t="str">
+        <f>テーブル5[[#This Row],[画像リンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+      <c r="T55" t="str">
+        <f>テーブル5[[#This Row],[エフェクトリンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="str">
+        <f>テーブル5[[#This Row],[名前]]</f>
+        <v>オーバーヒート</v>
+      </c>
+      <c r="C56" t="str">
+        <f>テーブル5[[#This Row],[消費ステータス]]</f>
+        <v>MP</v>
+      </c>
+      <c r="D56">
+        <f>テーブル5[[#This Row],[消費量]]</f>
+        <v>0</v>
+      </c>
+      <c r="E56" t="str">
+        <f>テーブル5[[#This Row],[攻撃側ステータス]]</f>
+        <v>INT</v>
+      </c>
+      <c r="F56">
+        <f>テーブル5[[#This Row],[攻撃側倍率]]</f>
+        <v>3</v>
+      </c>
+      <c r="G56" t="str">
+        <f>テーブル5[[#This Row],[防御側ステータス]]</f>
+        <v>MND</v>
+      </c>
+      <c r="H56">
+        <f>テーブル5[[#This Row],[防御側倍率]]</f>
+        <v>1</v>
+      </c>
+      <c r="I56" t="str">
+        <f>テーブル5[[#This Row],[属性]]</f>
+        <v>Fire</v>
+      </c>
+      <c r="J56" t="str">
+        <f>テーブル5[[#This Row],[分類]]</f>
+        <v>Attack</v>
+      </c>
+      <c r="K56" t="str">
+        <f>テーブル5[[#This Row],[使用対象]]</f>
+        <v>ally_Once</v>
+      </c>
+      <c r="L56">
+        <f>テーブル5[[#This Row],[命中率]]</f>
+        <v>100</v>
+      </c>
+      <c r="M56">
+        <f>テーブル5[[#This Row],[会心確率]]</f>
+        <v>5</v>
+      </c>
+      <c r="N56">
+        <f>テーブル5[[#This Row],[会心倍率]]</f>
+        <v>150</v>
+      </c>
+      <c r="O56" t="str">
+        <f>テーブル5[[#This Row],[追加効果]]</f>
+        <v>none</v>
+      </c>
+      <c r="P56" t="str">
+        <f>テーブル5[[#This Row],[説明文]]</f>
+        <v>あああああああああ</v>
+      </c>
+      <c r="Q56" t="str">
+        <f>テーブル5[[#This Row],[フレーバーテキスト]]</f>
+        <v>あああああああ</v>
+      </c>
+      <c r="R56" t="str">
+        <f>テーブル5[[#This Row],[使用時テキスト]]</f>
+        <v>プレイヤーは敵を攻撃した。</v>
+      </c>
+      <c r="S56" t="str">
+        <f>テーブル5[[#This Row],[画像リンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+      <c r="T56" t="str">
+        <f>テーブル5[[#This Row],[エフェクトリンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="str">
+        <f>テーブル5[[#This Row],[名前]]</f>
+        <v>スキル3</v>
+      </c>
+      <c r="C57" t="str">
+        <f>テーブル5[[#This Row],[消費ステータス]]</f>
+        <v>MP</v>
+      </c>
+      <c r="D57">
+        <f>テーブル5[[#This Row],[消費量]]</f>
+        <v>0</v>
+      </c>
+      <c r="E57" t="str">
+        <f>テーブル5[[#This Row],[攻撃側ステータス]]</f>
+        <v>INT</v>
+      </c>
+      <c r="F57">
+        <f>テーブル5[[#This Row],[攻撃側倍率]]</f>
+        <v>3</v>
+      </c>
+      <c r="G57" t="str">
+        <f>テーブル5[[#This Row],[防御側ステータス]]</f>
+        <v>MND</v>
+      </c>
+      <c r="H57">
+        <f>テーブル5[[#This Row],[防御側倍率]]</f>
+        <v>1</v>
+      </c>
+      <c r="I57" t="str">
+        <f>テーブル5[[#This Row],[属性]]</f>
+        <v>Fire</v>
+      </c>
+      <c r="J57" t="str">
+        <f>テーブル5[[#This Row],[分類]]</f>
+        <v>Attack</v>
+      </c>
+      <c r="K57" t="str">
+        <f>テーブル5[[#This Row],[使用対象]]</f>
+        <v>ally_Once</v>
+      </c>
+      <c r="L57">
+        <f>テーブル5[[#This Row],[命中率]]</f>
+        <v>100</v>
+      </c>
+      <c r="M57">
+        <f>テーブル5[[#This Row],[会心確率]]</f>
+        <v>5</v>
+      </c>
+      <c r="N57">
+        <f>テーブル5[[#This Row],[会心倍率]]</f>
+        <v>150</v>
+      </c>
+      <c r="O57" t="str">
+        <f>テーブル5[[#This Row],[追加効果]]</f>
+        <v>none</v>
+      </c>
+      <c r="P57" t="str">
+        <f>テーブル5[[#This Row],[説明文]]</f>
+        <v>あああああああああ</v>
+      </c>
+      <c r="Q57" t="str">
+        <f>テーブル5[[#This Row],[フレーバーテキスト]]</f>
+        <v>あああああああ</v>
+      </c>
+      <c r="R57" t="str">
+        <f>テーブル5[[#This Row],[使用時テキスト]]</f>
+        <v>プレイヤーは敵を攻撃した。</v>
+      </c>
+      <c r="S57" t="str">
+        <f>テーブル5[[#This Row],[画像リンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+      <c r="T57" t="str">
+        <f>テーブル5[[#This Row],[エフェクトリンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="str">
+        <f>テーブル5[[#This Row],[名前]]</f>
+        <v>インフェルノ</v>
+      </c>
+      <c r="C58" t="str">
+        <f>テーブル5[[#This Row],[消費ステータス]]</f>
+        <v>MP</v>
+      </c>
+      <c r="D58">
+        <f>テーブル5[[#This Row],[消費量]]</f>
+        <v>0</v>
+      </c>
+      <c r="E58" t="str">
+        <f>テーブル5[[#This Row],[攻撃側ステータス]]</f>
+        <v>INT</v>
+      </c>
+      <c r="F58">
+        <f>テーブル5[[#This Row],[攻撃側倍率]]</f>
+        <v>3</v>
+      </c>
+      <c r="G58" t="str">
+        <f>テーブル5[[#This Row],[防御側ステータス]]</f>
+        <v>MND</v>
+      </c>
+      <c r="H58">
+        <f>テーブル5[[#This Row],[防御側倍率]]</f>
+        <v>1</v>
+      </c>
+      <c r="I58" t="str">
+        <f>テーブル5[[#This Row],[属性]]</f>
+        <v>Fire</v>
+      </c>
+      <c r="J58" t="str">
+        <f>テーブル5[[#This Row],[分類]]</f>
+        <v>Attack</v>
+      </c>
+      <c r="K58" t="str">
+        <f>テーブル5[[#This Row],[使用対象]]</f>
+        <v>ally_Once</v>
+      </c>
+      <c r="L58">
+        <f>テーブル5[[#This Row],[命中率]]</f>
+        <v>100</v>
+      </c>
+      <c r="M58">
+        <f>テーブル5[[#This Row],[会心確率]]</f>
+        <v>5</v>
+      </c>
+      <c r="N58">
+        <f>テーブル5[[#This Row],[会心倍率]]</f>
+        <v>150</v>
+      </c>
+      <c r="O58" t="str">
+        <f>テーブル5[[#This Row],[追加効果]]</f>
+        <v>none</v>
+      </c>
+      <c r="P58" t="str">
+        <f>テーブル5[[#This Row],[説明文]]</f>
+        <v>あああああああああ</v>
+      </c>
+      <c r="Q58" t="str">
+        <f>テーブル5[[#This Row],[フレーバーテキスト]]</f>
+        <v>あああああああ</v>
+      </c>
+      <c r="R58" t="str">
+        <f>テーブル5[[#This Row],[使用時テキスト]]</f>
+        <v>プレイヤーは敵を攻撃した。</v>
+      </c>
+      <c r="S58" t="str">
+        <f>テーブル5[[#This Row],[画像リンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+      <c r="T58" t="str">
+        <f>テーブル5[[#This Row],[エフェクトリンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="str">
+        <f>テーブル5[[#This Row],[名前]]</f>
+        <v>バブルボム</v>
+      </c>
+      <c r="C59" t="str">
+        <f>テーブル5[[#This Row],[消費ステータス]]</f>
+        <v>MP</v>
+      </c>
+      <c r="D59">
+        <f>テーブル5[[#This Row],[消費量]]</f>
+        <v>0</v>
+      </c>
+      <c r="E59" t="str">
+        <f>テーブル5[[#This Row],[攻撃側ステータス]]</f>
+        <v>INT</v>
+      </c>
+      <c r="F59">
+        <f>テーブル5[[#This Row],[攻撃側倍率]]</f>
+        <v>3</v>
+      </c>
+      <c r="G59" t="str">
+        <f>テーブル5[[#This Row],[防御側ステータス]]</f>
+        <v>MND</v>
+      </c>
+      <c r="H59">
+        <f>テーブル5[[#This Row],[防御側倍率]]</f>
+        <v>1</v>
+      </c>
+      <c r="I59" t="str">
+        <f>テーブル5[[#This Row],[属性]]</f>
+        <v>Aqua</v>
+      </c>
+      <c r="J59" t="str">
+        <f>テーブル5[[#This Row],[分類]]</f>
+        <v>Attack</v>
+      </c>
+      <c r="K59" t="str">
+        <f>テーブル5[[#This Row],[使用対象]]</f>
+        <v>ally_Once</v>
+      </c>
+      <c r="L59">
+        <f>テーブル5[[#This Row],[命中率]]</f>
+        <v>100</v>
+      </c>
+      <c r="M59">
+        <f>テーブル5[[#This Row],[会心確率]]</f>
+        <v>5</v>
+      </c>
+      <c r="N59">
+        <f>テーブル5[[#This Row],[会心倍率]]</f>
+        <v>150</v>
+      </c>
+      <c r="O59" t="str">
+        <f>テーブル5[[#This Row],[追加効果]]</f>
+        <v>none</v>
+      </c>
+      <c r="P59" t="str">
+        <f>テーブル5[[#This Row],[説明文]]</f>
+        <v>あああああああああ</v>
+      </c>
+      <c r="Q59" t="str">
+        <f>テーブル5[[#This Row],[フレーバーテキスト]]</f>
+        <v>あああああああ</v>
+      </c>
+      <c r="R59" t="str">
+        <f>テーブル5[[#This Row],[使用時テキスト]]</f>
+        <v>プレイヤーは敵を攻撃した。</v>
+      </c>
+      <c r="S59" t="str">
+        <f>テーブル5[[#This Row],[画像リンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+      <c r="T59" t="str">
+        <f>テーブル5[[#This Row],[エフェクトリンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="str">
+        <f>テーブル5[[#This Row],[名前]]</f>
+        <v>ハイドロウェーブ</v>
+      </c>
+      <c r="C60" t="str">
+        <f>テーブル5[[#This Row],[消費ステータス]]</f>
+        <v>MP</v>
+      </c>
+      <c r="D60">
+        <f>テーブル5[[#This Row],[消費量]]</f>
+        <v>0</v>
+      </c>
+      <c r="E60" t="str">
+        <f>テーブル5[[#This Row],[攻撃側ステータス]]</f>
+        <v>INT</v>
+      </c>
+      <c r="F60">
+        <f>テーブル5[[#This Row],[攻撃側倍率]]</f>
+        <v>3</v>
+      </c>
+      <c r="G60" t="str">
+        <f>テーブル5[[#This Row],[防御側ステータス]]</f>
+        <v>MND</v>
+      </c>
+      <c r="H60">
+        <f>テーブル5[[#This Row],[防御側倍率]]</f>
+        <v>1</v>
+      </c>
+      <c r="I60" t="str">
+        <f>テーブル5[[#This Row],[属性]]</f>
+        <v>Aqua</v>
+      </c>
+      <c r="J60" t="str">
+        <f>テーブル5[[#This Row],[分類]]</f>
+        <v>Attack</v>
+      </c>
+      <c r="K60" t="str">
+        <f>テーブル5[[#This Row],[使用対象]]</f>
+        <v>ally_Once</v>
+      </c>
+      <c r="L60">
+        <f>テーブル5[[#This Row],[命中率]]</f>
+        <v>100</v>
+      </c>
+      <c r="M60">
+        <f>テーブル5[[#This Row],[会心確率]]</f>
+        <v>5</v>
+      </c>
+      <c r="N60">
+        <f>テーブル5[[#This Row],[会心倍率]]</f>
+        <v>150</v>
+      </c>
+      <c r="O60" t="str">
+        <f>テーブル5[[#This Row],[追加効果]]</f>
+        <v>none</v>
+      </c>
+      <c r="P60" t="str">
+        <f>テーブル5[[#This Row],[説明文]]</f>
+        <v>あああああああああ</v>
+      </c>
+      <c r="Q60" t="str">
+        <f>テーブル5[[#This Row],[フレーバーテキスト]]</f>
+        <v>あああああああ</v>
+      </c>
+      <c r="R60" t="str">
+        <f>テーブル5[[#This Row],[使用時テキスト]]</f>
+        <v>プレイヤーは敵を攻撃した。</v>
+      </c>
+      <c r="S60" t="str">
+        <f>テーブル5[[#This Row],[画像リンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+      <c r="T60" t="str">
+        <f>テーブル5[[#This Row],[エフェクトリンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="str">
+        <f>テーブル5[[#This Row],[名前]]</f>
+        <v>毒の泡</v>
+      </c>
+      <c r="C61" t="str">
+        <f>テーブル5[[#This Row],[消費ステータス]]</f>
+        <v>MP</v>
+      </c>
+      <c r="D61">
+        <f>テーブル5[[#This Row],[消費量]]</f>
+        <v>0</v>
+      </c>
+      <c r="E61" t="str">
+        <f>テーブル5[[#This Row],[攻撃側ステータス]]</f>
+        <v>INT</v>
+      </c>
+      <c r="F61">
+        <f>テーブル5[[#This Row],[攻撃側倍率]]</f>
+        <v>3</v>
+      </c>
+      <c r="G61" t="str">
+        <f>テーブル5[[#This Row],[防御側ステータス]]</f>
+        <v>MND</v>
+      </c>
+      <c r="H61">
+        <f>テーブル5[[#This Row],[防御側倍率]]</f>
+        <v>1</v>
+      </c>
+      <c r="I61" t="str">
+        <f>テーブル5[[#This Row],[属性]]</f>
+        <v>Aqua</v>
+      </c>
+      <c r="J61" t="str">
+        <f>テーブル5[[#This Row],[分類]]</f>
+        <v>Attack</v>
+      </c>
+      <c r="K61" t="str">
+        <f>テーブル5[[#This Row],[使用対象]]</f>
+        <v>ally_Once</v>
+      </c>
+      <c r="L61">
+        <f>テーブル5[[#This Row],[命中率]]</f>
+        <v>100</v>
+      </c>
+      <c r="M61">
+        <f>テーブル5[[#This Row],[会心確率]]</f>
+        <v>5</v>
+      </c>
+      <c r="N61">
+        <f>テーブル5[[#This Row],[会心倍率]]</f>
+        <v>150</v>
+      </c>
+      <c r="O61" t="str">
+        <f>テーブル5[[#This Row],[追加効果]]</f>
+        <v>none</v>
+      </c>
+      <c r="P61" t="str">
+        <f>テーブル5[[#This Row],[説明文]]</f>
+        <v>あああああああああ</v>
+      </c>
+      <c r="Q61" t="str">
+        <f>テーブル5[[#This Row],[フレーバーテキスト]]</f>
+        <v>あああああああ</v>
+      </c>
+      <c r="R61" t="str">
+        <f>テーブル5[[#This Row],[使用時テキスト]]</f>
+        <v>プレイヤーは敵を攻撃した。</v>
+      </c>
+      <c r="S61" t="str">
+        <f>テーブル5[[#This Row],[画像リンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+      <c r="T61" t="str">
+        <f>テーブル5[[#This Row],[エフェクトリンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="str">
+        <f>テーブル5[[#This Row],[名前]]</f>
+        <v>フェイタルウェーブ</v>
+      </c>
+      <c r="C62" t="str">
+        <f>テーブル5[[#This Row],[消費ステータス]]</f>
+        <v>MP</v>
+      </c>
+      <c r="D62">
+        <f>テーブル5[[#This Row],[消費量]]</f>
+        <v>0</v>
+      </c>
+      <c r="E62" t="str">
+        <f>テーブル5[[#This Row],[攻撃側ステータス]]</f>
+        <v>INT</v>
+      </c>
+      <c r="F62">
+        <f>テーブル5[[#This Row],[攻撃側倍率]]</f>
+        <v>3</v>
+      </c>
+      <c r="G62" t="str">
+        <f>テーブル5[[#This Row],[防御側ステータス]]</f>
+        <v>MND</v>
+      </c>
+      <c r="H62">
+        <f>テーブル5[[#This Row],[防御側倍率]]</f>
+        <v>1</v>
+      </c>
+      <c r="I62" t="str">
+        <f>テーブル5[[#This Row],[属性]]</f>
+        <v>Aqua</v>
+      </c>
+      <c r="J62" t="str">
+        <f>テーブル5[[#This Row],[分類]]</f>
+        <v>Attack</v>
+      </c>
+      <c r="K62" t="str">
+        <f>テーブル5[[#This Row],[使用対象]]</f>
+        <v>ally_Once</v>
+      </c>
+      <c r="L62">
+        <f>テーブル5[[#This Row],[命中率]]</f>
+        <v>100</v>
+      </c>
+      <c r="M62">
+        <f>テーブル5[[#This Row],[会心確率]]</f>
+        <v>5</v>
+      </c>
+      <c r="N62">
+        <f>テーブル5[[#This Row],[会心倍率]]</f>
+        <v>150</v>
+      </c>
+      <c r="O62" t="str">
+        <f>テーブル5[[#This Row],[追加効果]]</f>
+        <v>none</v>
+      </c>
+      <c r="P62" t="str">
+        <f>テーブル5[[#This Row],[説明文]]</f>
+        <v>あああああああああ</v>
+      </c>
+      <c r="Q62" t="str">
+        <f>テーブル5[[#This Row],[フレーバーテキスト]]</f>
+        <v>あああああああ</v>
+      </c>
+      <c r="R62" t="str">
+        <f>テーブル5[[#This Row],[使用時テキスト]]</f>
+        <v>プレイヤーは敵を攻撃した。</v>
+      </c>
+      <c r="S62" t="str">
+        <f>テーブル5[[#This Row],[画像リンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+      <c r="T62" t="str">
+        <f>テーブル5[[#This Row],[エフェクトリンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="str">
+        <f>テーブル5[[#This Row],[名前]]</f>
+        <v>ウィンドカッター</v>
+      </c>
+      <c r="C63" t="str">
+        <f>テーブル5[[#This Row],[消費ステータス]]</f>
+        <v>MP</v>
+      </c>
+      <c r="D63">
+        <f>テーブル5[[#This Row],[消費量]]</f>
+        <v>0</v>
+      </c>
+      <c r="E63" t="str">
+        <f>テーブル5[[#This Row],[攻撃側ステータス]]</f>
+        <v>INT</v>
+      </c>
+      <c r="F63">
+        <f>テーブル5[[#This Row],[攻撃側倍率]]</f>
+        <v>3</v>
+      </c>
+      <c r="G63" t="str">
+        <f>テーブル5[[#This Row],[防御側ステータス]]</f>
+        <v>MND</v>
+      </c>
+      <c r="H63">
+        <f>テーブル5[[#This Row],[防御側倍率]]</f>
+        <v>1</v>
+      </c>
+      <c r="I63" t="str">
+        <f>テーブル5[[#This Row],[属性]]</f>
+        <v>Wind</v>
+      </c>
+      <c r="J63" t="str">
+        <f>テーブル5[[#This Row],[分類]]</f>
+        <v>Attack</v>
+      </c>
+      <c r="K63" t="str">
+        <f>テーブル5[[#This Row],[使用対象]]</f>
+        <v>ally_Once</v>
+      </c>
+      <c r="L63">
+        <f>テーブル5[[#This Row],[命中率]]</f>
+        <v>100</v>
+      </c>
+      <c r="M63">
+        <f>テーブル5[[#This Row],[会心確率]]</f>
+        <v>5</v>
+      </c>
+      <c r="N63">
+        <f>テーブル5[[#This Row],[会心倍率]]</f>
+        <v>150</v>
+      </c>
+      <c r="O63" t="str">
+        <f>テーブル5[[#This Row],[追加効果]]</f>
+        <v>none</v>
+      </c>
+      <c r="P63" t="str">
+        <f>テーブル5[[#This Row],[説明文]]</f>
+        <v>あああああああああ</v>
+      </c>
+      <c r="Q63" t="str">
+        <f>テーブル5[[#This Row],[フレーバーテキスト]]</f>
+        <v>あああああああ</v>
+      </c>
+      <c r="R63" t="str">
+        <f>テーブル5[[#This Row],[使用時テキスト]]</f>
+        <v>プレイヤーは敵を攻撃した。</v>
+      </c>
+      <c r="S63" t="str">
+        <f>テーブル5[[#This Row],[画像リンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+      <c r="T63" t="str">
+        <f>テーブル5[[#This Row],[エフェクトリンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="str">
+        <f>テーブル5[[#This Row],[名前]]</f>
+        <v>ボルテックスアロー</v>
+      </c>
+      <c r="C64" t="str">
+        <f>テーブル5[[#This Row],[消費ステータス]]</f>
+        <v>MP</v>
+      </c>
+      <c r="D64">
+        <f>テーブル5[[#This Row],[消費量]]</f>
+        <v>0</v>
+      </c>
+      <c r="E64" t="str">
+        <f>テーブル5[[#This Row],[攻撃側ステータス]]</f>
+        <v>INT</v>
+      </c>
+      <c r="F64">
+        <f>テーブル5[[#This Row],[攻撃側倍率]]</f>
+        <v>3</v>
+      </c>
+      <c r="G64" t="str">
+        <f>テーブル5[[#This Row],[防御側ステータス]]</f>
+        <v>MND</v>
+      </c>
+      <c r="H64">
+        <f>テーブル5[[#This Row],[防御側倍率]]</f>
+        <v>1</v>
+      </c>
+      <c r="I64" t="str">
+        <f>テーブル5[[#This Row],[属性]]</f>
+        <v>Wind</v>
+      </c>
+      <c r="J64" t="str">
+        <f>テーブル5[[#This Row],[分類]]</f>
+        <v>Attack</v>
+      </c>
+      <c r="K64" t="str">
+        <f>テーブル5[[#This Row],[使用対象]]</f>
+        <v>ally_Once</v>
+      </c>
+      <c r="L64">
+        <f>テーブル5[[#This Row],[命中率]]</f>
+        <v>100</v>
+      </c>
+      <c r="M64">
+        <f>テーブル5[[#This Row],[会心確率]]</f>
+        <v>5</v>
+      </c>
+      <c r="N64">
+        <f>テーブル5[[#This Row],[会心倍率]]</f>
+        <v>150</v>
+      </c>
+      <c r="O64" t="str">
+        <f>テーブル5[[#This Row],[追加効果]]</f>
+        <v>none</v>
+      </c>
+      <c r="P64" t="str">
+        <f>テーブル5[[#This Row],[説明文]]</f>
+        <v>あああああああああ</v>
+      </c>
+      <c r="Q64" t="str">
+        <f>テーブル5[[#This Row],[フレーバーテキスト]]</f>
+        <v>あああああああ</v>
+      </c>
+      <c r="R64" t="str">
+        <f>テーブル5[[#This Row],[使用時テキスト]]</f>
+        <v>プレイヤーは敵を攻撃した。</v>
+      </c>
+      <c r="S64" t="str">
+        <f>テーブル5[[#This Row],[画像リンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+      <c r="T64" t="str">
+        <f>テーブル5[[#This Row],[エフェクトリンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="str">
+        <f>テーブル5[[#This Row],[名前]]</f>
+        <v>スキル3</v>
+      </c>
+      <c r="C65" t="str">
+        <f>テーブル5[[#This Row],[消費ステータス]]</f>
+        <v>MP</v>
+      </c>
+      <c r="D65">
+        <f>テーブル5[[#This Row],[消費量]]</f>
+        <v>0</v>
+      </c>
+      <c r="E65" t="str">
+        <f>テーブル5[[#This Row],[攻撃側ステータス]]</f>
+        <v>INT</v>
+      </c>
+      <c r="F65">
+        <f>テーブル5[[#This Row],[攻撃側倍率]]</f>
+        <v>3</v>
+      </c>
+      <c r="G65" t="str">
+        <f>テーブル5[[#This Row],[防御側ステータス]]</f>
+        <v>MND</v>
+      </c>
+      <c r="H65">
+        <f>テーブル5[[#This Row],[防御側倍率]]</f>
+        <v>1</v>
+      </c>
+      <c r="I65" t="str">
+        <f>テーブル5[[#This Row],[属性]]</f>
+        <v>Wind</v>
+      </c>
+      <c r="J65" t="str">
+        <f>テーブル5[[#This Row],[分類]]</f>
+        <v>Attack</v>
+      </c>
+      <c r="K65" t="str">
+        <f>テーブル5[[#This Row],[使用対象]]</f>
+        <v>ally_Once</v>
+      </c>
+      <c r="L65">
+        <f>テーブル5[[#This Row],[命中率]]</f>
+        <v>100</v>
+      </c>
+      <c r="M65">
+        <f>テーブル5[[#This Row],[会心確率]]</f>
+        <v>5</v>
+      </c>
+      <c r="N65">
+        <f>テーブル5[[#This Row],[会心倍率]]</f>
+        <v>150</v>
+      </c>
+      <c r="O65" t="str">
+        <f>テーブル5[[#This Row],[追加効果]]</f>
+        <v>none</v>
+      </c>
+      <c r="P65" t="str">
+        <f>テーブル5[[#This Row],[説明文]]</f>
+        <v>あああああああああ</v>
+      </c>
+      <c r="Q65" t="str">
+        <f>テーブル5[[#This Row],[フレーバーテキスト]]</f>
+        <v>あああああああ</v>
+      </c>
+      <c r="R65" t="str">
+        <f>テーブル5[[#This Row],[使用時テキスト]]</f>
+        <v>プレイヤーは敵を攻撃した。</v>
+      </c>
+      <c r="S65" t="str">
+        <f>テーブル5[[#This Row],[画像リンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+      <c r="T65" t="str">
+        <f>テーブル5[[#This Row],[エフェクトリンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="str">
+        <f>テーブル5[[#This Row],[名前]]</f>
+        <v>テンペスト</v>
+      </c>
+      <c r="C66" t="str">
+        <f>テーブル5[[#This Row],[消費ステータス]]</f>
+        <v>MP</v>
+      </c>
+      <c r="D66">
+        <f>テーブル5[[#This Row],[消費量]]</f>
+        <v>0</v>
+      </c>
+      <c r="E66" t="str">
+        <f>テーブル5[[#This Row],[攻撃側ステータス]]</f>
+        <v>INT</v>
+      </c>
+      <c r="F66">
+        <f>テーブル5[[#This Row],[攻撃側倍率]]</f>
+        <v>3</v>
+      </c>
+      <c r="G66" t="str">
+        <f>テーブル5[[#This Row],[防御側ステータス]]</f>
+        <v>MND</v>
+      </c>
+      <c r="H66">
+        <f>テーブル5[[#This Row],[防御側倍率]]</f>
+        <v>1</v>
+      </c>
+      <c r="I66" t="str">
+        <f>テーブル5[[#This Row],[属性]]</f>
+        <v>Wind</v>
+      </c>
+      <c r="J66" t="str">
+        <f>テーブル5[[#This Row],[分類]]</f>
+        <v>Attack</v>
+      </c>
+      <c r="K66" t="str">
+        <f>テーブル5[[#This Row],[使用対象]]</f>
+        <v>ally_Once</v>
+      </c>
+      <c r="L66">
+        <f>テーブル5[[#This Row],[命中率]]</f>
+        <v>100</v>
+      </c>
+      <c r="M66">
+        <f>テーブル5[[#This Row],[会心確率]]</f>
+        <v>5</v>
+      </c>
+      <c r="N66">
+        <f>テーブル5[[#This Row],[会心倍率]]</f>
+        <v>150</v>
+      </c>
+      <c r="O66" t="str">
+        <f>テーブル5[[#This Row],[追加効果]]</f>
+        <v>none</v>
+      </c>
+      <c r="P66" t="str">
+        <f>テーブル5[[#This Row],[説明文]]</f>
+        <v>あああああああああ</v>
+      </c>
+      <c r="Q66" t="str">
+        <f>テーブル5[[#This Row],[フレーバーテキスト]]</f>
+        <v>あああああああ</v>
+      </c>
+      <c r="R66" t="str">
+        <f>テーブル5[[#This Row],[使用時テキスト]]</f>
+        <v>プレイヤーは敵を攻撃した。</v>
+      </c>
+      <c r="S66" t="str">
+        <f>テーブル5[[#This Row],[画像リンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+      <c r="T66" t="str">
+        <f>テーブル5[[#This Row],[エフェクトリンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="str">
+        <f>テーブル5[[#This Row],[名前]]</f>
+        <v>ストーンバレット</v>
+      </c>
+      <c r="C67" t="str">
+        <f>テーブル5[[#This Row],[消費ステータス]]</f>
+        <v>MP</v>
+      </c>
+      <c r="D67">
+        <f>テーブル5[[#This Row],[消費量]]</f>
+        <v>0</v>
+      </c>
+      <c r="E67" t="str">
+        <f>テーブル5[[#This Row],[攻撃側ステータス]]</f>
+        <v>INT</v>
+      </c>
+      <c r="F67">
+        <f>テーブル5[[#This Row],[攻撃側倍率]]</f>
+        <v>3</v>
+      </c>
+      <c r="G67" t="str">
+        <f>テーブル5[[#This Row],[防御側ステータス]]</f>
+        <v>MND</v>
+      </c>
+      <c r="H67">
+        <f>テーブル5[[#This Row],[防御側倍率]]</f>
+        <v>1</v>
+      </c>
+      <c r="I67" t="str">
+        <f>テーブル5[[#This Row],[属性]]</f>
+        <v>Earth</v>
+      </c>
+      <c r="J67" t="str">
+        <f>テーブル5[[#This Row],[分類]]</f>
+        <v>Attack</v>
+      </c>
+      <c r="K67" t="str">
+        <f>テーブル5[[#This Row],[使用対象]]</f>
+        <v>ally_Once</v>
+      </c>
+      <c r="L67">
+        <f>テーブル5[[#This Row],[命中率]]</f>
+        <v>100</v>
+      </c>
+      <c r="M67">
+        <f>テーブル5[[#This Row],[会心確率]]</f>
+        <v>5</v>
+      </c>
+      <c r="N67">
+        <f>テーブル5[[#This Row],[会心倍率]]</f>
+        <v>150</v>
+      </c>
+      <c r="O67" t="str">
+        <f>テーブル5[[#This Row],[追加効果]]</f>
+        <v>none</v>
+      </c>
+      <c r="P67" t="str">
+        <f>テーブル5[[#This Row],[説明文]]</f>
+        <v>あああああああああ</v>
+      </c>
+      <c r="Q67" t="str">
+        <f>テーブル5[[#This Row],[フレーバーテキスト]]</f>
+        <v>あああああああ</v>
+      </c>
+      <c r="R67" t="str">
+        <f>テーブル5[[#This Row],[使用時テキスト]]</f>
+        <v>プレイヤーは敵を攻撃した。</v>
+      </c>
+      <c r="S67" t="str">
+        <f>テーブル5[[#This Row],[画像リンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+      <c r="T67" t="str">
+        <f>テーブル5[[#This Row],[エフェクトリンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="str">
+        <f>テーブル5[[#This Row],[名前]]</f>
+        <v>ロックキャノン</v>
+      </c>
+      <c r="C68" t="str">
+        <f>テーブル5[[#This Row],[消費ステータス]]</f>
+        <v>MP</v>
+      </c>
+      <c r="D68">
+        <f>テーブル5[[#This Row],[消費量]]</f>
+        <v>0</v>
+      </c>
+      <c r="E68" t="str">
+        <f>テーブル5[[#This Row],[攻撃側ステータス]]</f>
+        <v>INT</v>
+      </c>
+      <c r="F68">
+        <f>テーブル5[[#This Row],[攻撃側倍率]]</f>
+        <v>3</v>
+      </c>
+      <c r="G68" t="str">
+        <f>テーブル5[[#This Row],[防御側ステータス]]</f>
+        <v>MND</v>
+      </c>
+      <c r="H68">
+        <f>テーブル5[[#This Row],[防御側倍率]]</f>
+        <v>1</v>
+      </c>
+      <c r="I68" t="str">
+        <f>テーブル5[[#This Row],[属性]]</f>
+        <v>Earth</v>
+      </c>
+      <c r="J68" t="str">
+        <f>テーブル5[[#This Row],[分類]]</f>
+        <v>Attack</v>
+      </c>
+      <c r="K68" t="str">
+        <f>テーブル5[[#This Row],[使用対象]]</f>
+        <v>ally_Once</v>
+      </c>
+      <c r="L68">
+        <f>テーブル5[[#This Row],[命中率]]</f>
+        <v>100</v>
+      </c>
+      <c r="M68">
+        <f>テーブル5[[#This Row],[会心確率]]</f>
+        <v>5</v>
+      </c>
+      <c r="N68">
+        <f>テーブル5[[#This Row],[会心倍率]]</f>
+        <v>150</v>
+      </c>
+      <c r="O68" t="str">
+        <f>テーブル5[[#This Row],[追加効果]]</f>
+        <v>none</v>
+      </c>
+      <c r="P68" t="str">
+        <f>テーブル5[[#This Row],[説明文]]</f>
+        <v>あああああああああ</v>
+      </c>
+      <c r="Q68" t="str">
+        <f>テーブル5[[#This Row],[フレーバーテキスト]]</f>
+        <v>あああああああ</v>
+      </c>
+      <c r="R68" t="str">
+        <f>テーブル5[[#This Row],[使用時テキスト]]</f>
+        <v>プレイヤーは敵を攻撃した。</v>
+      </c>
+      <c r="S68" t="str">
+        <f>テーブル5[[#This Row],[画像リンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+      <c r="T68" t="str">
+        <f>テーブル5[[#This Row],[エフェクトリンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="str">
+        <f>テーブル5[[#This Row],[名前]]</f>
+        <v>スキル3</v>
+      </c>
+      <c r="C69" t="str">
+        <f>テーブル5[[#This Row],[消費ステータス]]</f>
+        <v>MP</v>
+      </c>
+      <c r="D69">
+        <f>テーブル5[[#This Row],[消費量]]</f>
+        <v>0</v>
+      </c>
+      <c r="E69" t="str">
+        <f>テーブル5[[#This Row],[攻撃側ステータス]]</f>
+        <v>STR</v>
+      </c>
+      <c r="F69">
+        <f>テーブル5[[#This Row],[攻撃側倍率]]</f>
+        <v>3</v>
+      </c>
+      <c r="G69" t="str">
+        <f>テーブル5[[#This Row],[防御側ステータス]]</f>
+        <v>DEF</v>
+      </c>
+      <c r="H69">
+        <f>テーブル5[[#This Row],[防御側倍率]]</f>
+        <v>1</v>
+      </c>
+      <c r="I69" t="str">
+        <f>テーブル5[[#This Row],[属性]]</f>
+        <v>Earth</v>
+      </c>
+      <c r="J69" t="str">
+        <f>テーブル5[[#This Row],[分類]]</f>
+        <v>Attack</v>
+      </c>
+      <c r="K69" t="str">
+        <f>テーブル5[[#This Row],[使用対象]]</f>
+        <v>ally_Once</v>
+      </c>
+      <c r="L69">
+        <f>テーブル5[[#This Row],[命中率]]</f>
+        <v>100</v>
+      </c>
+      <c r="M69">
+        <f>テーブル5[[#This Row],[会心確率]]</f>
+        <v>5</v>
+      </c>
+      <c r="N69">
+        <f>テーブル5[[#This Row],[会心倍率]]</f>
+        <v>150</v>
+      </c>
+      <c r="O69" t="str">
+        <f>テーブル5[[#This Row],[追加効果]]</f>
+        <v>none</v>
+      </c>
+      <c r="P69" t="str">
+        <f>テーブル5[[#This Row],[説明文]]</f>
+        <v>あああああああああ</v>
+      </c>
+      <c r="Q69" t="str">
+        <f>テーブル5[[#This Row],[フレーバーテキスト]]</f>
+        <v>あああああああ</v>
+      </c>
+      <c r="R69" t="str">
+        <f>テーブル5[[#This Row],[使用時テキスト]]</f>
+        <v>プレイヤーは敵を攻撃した。</v>
+      </c>
+      <c r="S69" t="str">
+        <f>テーブル5[[#This Row],[画像リンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+      <c r="T69" t="str">
+        <f>テーブル5[[#This Row],[エフェクトリンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="str">
+        <f>テーブル5[[#This Row],[名前]]</f>
+        <v>アースクエイク</v>
+      </c>
+      <c r="C70" t="str">
+        <f>テーブル5[[#This Row],[消費ステータス]]</f>
+        <v>MP</v>
+      </c>
+      <c r="D70">
+        <f>テーブル5[[#This Row],[消費量]]</f>
+        <v>0</v>
+      </c>
+      <c r="E70" t="str">
+        <f>テーブル5[[#This Row],[攻撃側ステータス]]</f>
+        <v>INT</v>
+      </c>
+      <c r="F70">
+        <f>テーブル5[[#This Row],[攻撃側倍率]]</f>
+        <v>3</v>
+      </c>
+      <c r="G70" t="str">
+        <f>テーブル5[[#This Row],[防御側ステータス]]</f>
+        <v>MND</v>
+      </c>
+      <c r="H70">
+        <f>テーブル5[[#This Row],[防御側倍率]]</f>
+        <v>1</v>
+      </c>
+      <c r="I70" t="str">
+        <f>テーブル5[[#This Row],[属性]]</f>
+        <v>Earth</v>
+      </c>
+      <c r="J70" t="str">
+        <f>テーブル5[[#This Row],[分類]]</f>
+        <v>Attack</v>
+      </c>
+      <c r="K70" t="str">
+        <f>テーブル5[[#This Row],[使用対象]]</f>
+        <v>ally_Once</v>
+      </c>
+      <c r="L70">
+        <f>テーブル5[[#This Row],[命中率]]</f>
+        <v>100</v>
+      </c>
+      <c r="M70">
+        <f>テーブル5[[#This Row],[会心確率]]</f>
+        <v>5</v>
+      </c>
+      <c r="N70">
+        <f>テーブル5[[#This Row],[会心倍率]]</f>
+        <v>150</v>
+      </c>
+      <c r="O70" t="str">
+        <f>テーブル5[[#This Row],[追加効果]]</f>
+        <v>none</v>
+      </c>
+      <c r="P70" t="str">
+        <f>テーブル5[[#This Row],[説明文]]</f>
+        <v>あああああああああ</v>
+      </c>
+      <c r="Q70" t="str">
+        <f>テーブル5[[#This Row],[フレーバーテキスト]]</f>
+        <v>あああああああ</v>
+      </c>
+      <c r="R70" t="str">
+        <f>テーブル5[[#This Row],[使用時テキスト]]</f>
+        <v>プレイヤーは敵を攻撃した。</v>
+      </c>
+      <c r="S70" t="str">
+        <f>テーブル5[[#This Row],[画像リンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+      <c r="T70" t="str">
+        <f>テーブル5[[#This Row],[エフェクトリンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="str">
+        <f>テーブル5[[#This Row],[名前]]</f>
+        <v>ライトボール</v>
+      </c>
+      <c r="C71" t="str">
+        <f>テーブル5[[#This Row],[消費ステータス]]</f>
+        <v>MP</v>
+      </c>
+      <c r="D71">
+        <f>テーブル5[[#This Row],[消費量]]</f>
+        <v>0</v>
+      </c>
+      <c r="E71" t="str">
+        <f>テーブル5[[#This Row],[攻撃側ステータス]]</f>
+        <v>INT</v>
+      </c>
+      <c r="F71">
+        <f>テーブル5[[#This Row],[攻撃側倍率]]</f>
+        <v>3</v>
+      </c>
+      <c r="G71" t="str">
+        <f>テーブル5[[#This Row],[防御側ステータス]]</f>
+        <v>MND</v>
+      </c>
+      <c r="H71">
+        <f>テーブル5[[#This Row],[防御側倍率]]</f>
+        <v>1</v>
+      </c>
+      <c r="I71" t="str">
+        <f>テーブル5[[#This Row],[属性]]</f>
+        <v>Light</v>
+      </c>
+      <c r="J71" t="str">
+        <f>テーブル5[[#This Row],[分類]]</f>
+        <v>Attack</v>
+      </c>
+      <c r="K71" t="str">
+        <f>テーブル5[[#This Row],[使用対象]]</f>
+        <v>ally_Once</v>
+      </c>
+      <c r="L71">
+        <f>テーブル5[[#This Row],[命中率]]</f>
+        <v>100</v>
+      </c>
+      <c r="M71">
+        <f>テーブル5[[#This Row],[会心確率]]</f>
+        <v>5</v>
+      </c>
+      <c r="N71">
+        <f>テーブル5[[#This Row],[会心倍率]]</f>
+        <v>150</v>
+      </c>
+      <c r="O71" t="str">
+        <f>テーブル5[[#This Row],[追加効果]]</f>
+        <v>none</v>
+      </c>
+      <c r="P71" t="str">
+        <f>テーブル5[[#This Row],[説明文]]</f>
+        <v>あああああああああ</v>
+      </c>
+      <c r="Q71" t="str">
+        <f>テーブル5[[#This Row],[フレーバーテキスト]]</f>
+        <v>あああああああ</v>
+      </c>
+      <c r="R71" t="str">
+        <f>テーブル5[[#This Row],[使用時テキスト]]</f>
+        <v>プレイヤーは敵を攻撃した。</v>
+      </c>
+      <c r="S71" t="str">
+        <f>テーブル5[[#This Row],[画像リンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+      <c r="T71" t="str">
+        <f>テーブル5[[#This Row],[エフェクトリンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="str">
+        <f>テーブル5[[#This Row],[名前]]</f>
+        <v>セイクリッドレイン</v>
+      </c>
+      <c r="C72" t="str">
+        <f>テーブル5[[#This Row],[消費ステータス]]</f>
+        <v>MP</v>
+      </c>
+      <c r="D72">
+        <f>テーブル5[[#This Row],[消費量]]</f>
+        <v>0</v>
+      </c>
+      <c r="E72" t="str">
+        <f>テーブル5[[#This Row],[攻撃側ステータス]]</f>
+        <v>INT</v>
+      </c>
+      <c r="F72">
+        <f>テーブル5[[#This Row],[攻撃側倍率]]</f>
+        <v>3</v>
+      </c>
+      <c r="G72" t="str">
+        <f>テーブル5[[#This Row],[防御側ステータス]]</f>
+        <v>MND</v>
+      </c>
+      <c r="H72">
+        <f>テーブル5[[#This Row],[防御側倍率]]</f>
+        <v>1</v>
+      </c>
+      <c r="I72" t="str">
+        <f>テーブル5[[#This Row],[属性]]</f>
+        <v>Light</v>
+      </c>
+      <c r="J72" t="str">
+        <f>テーブル5[[#This Row],[分類]]</f>
+        <v>Attack</v>
+      </c>
+      <c r="K72" t="str">
+        <f>テーブル5[[#This Row],[使用対象]]</f>
+        <v>ally_Once</v>
+      </c>
+      <c r="L72">
+        <f>テーブル5[[#This Row],[命中率]]</f>
+        <v>100</v>
+      </c>
+      <c r="M72">
+        <f>テーブル5[[#This Row],[会心確率]]</f>
+        <v>5</v>
+      </c>
+      <c r="N72">
+        <f>テーブル5[[#This Row],[会心倍率]]</f>
+        <v>150</v>
+      </c>
+      <c r="O72" t="str">
+        <f>テーブル5[[#This Row],[追加効果]]</f>
+        <v>none</v>
+      </c>
+      <c r="P72" t="str">
+        <f>テーブル5[[#This Row],[説明文]]</f>
+        <v>あああああああああ</v>
+      </c>
+      <c r="Q72" t="str">
+        <f>テーブル5[[#This Row],[フレーバーテキスト]]</f>
+        <v>あああああああ</v>
+      </c>
+      <c r="R72" t="str">
+        <f>テーブル5[[#This Row],[使用時テキスト]]</f>
+        <v>プレイヤーは敵を攻撃した。</v>
+      </c>
+      <c r="S72" t="str">
+        <f>テーブル5[[#This Row],[画像リンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+      <c r="T72" t="str">
+        <f>テーブル5[[#This Row],[エフェクトリンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="str">
+        <f>テーブル5[[#This Row],[名前]]</f>
+        <v>ライジングスピア</v>
+      </c>
+      <c r="C73" t="str">
+        <f>テーブル5[[#This Row],[消費ステータス]]</f>
+        <v>MP</v>
+      </c>
+      <c r="D73">
+        <f>テーブル5[[#This Row],[消費量]]</f>
+        <v>0</v>
+      </c>
+      <c r="E73" t="str">
+        <f>テーブル5[[#This Row],[攻撃側ステータス]]</f>
+        <v>STR</v>
+      </c>
+      <c r="F73">
+        <f>テーブル5[[#This Row],[攻撃側倍率]]</f>
+        <v>3</v>
+      </c>
+      <c r="G73" t="str">
+        <f>テーブル5[[#This Row],[防御側ステータス]]</f>
+        <v>DEF</v>
+      </c>
+      <c r="H73">
+        <f>テーブル5[[#This Row],[防御側倍率]]</f>
+        <v>1</v>
+      </c>
+      <c r="I73" t="str">
+        <f>テーブル5[[#This Row],[属性]]</f>
+        <v>Light</v>
+      </c>
+      <c r="J73" t="str">
+        <f>テーブル5[[#This Row],[分類]]</f>
+        <v>Attack</v>
+      </c>
+      <c r="K73" t="str">
+        <f>テーブル5[[#This Row],[使用対象]]</f>
+        <v>ally_Once</v>
+      </c>
+      <c r="L73">
+        <f>テーブル5[[#This Row],[命中率]]</f>
+        <v>100</v>
+      </c>
+      <c r="M73">
+        <f>テーブル5[[#This Row],[会心確率]]</f>
+        <v>5</v>
+      </c>
+      <c r="N73">
+        <f>テーブル5[[#This Row],[会心倍率]]</f>
+        <v>150</v>
+      </c>
+      <c r="O73" t="str">
+        <f>テーブル5[[#This Row],[追加効果]]</f>
+        <v>none</v>
+      </c>
+      <c r="P73" t="str">
+        <f>テーブル5[[#This Row],[説明文]]</f>
+        <v>あああああああああ</v>
+      </c>
+      <c r="Q73" t="str">
+        <f>テーブル5[[#This Row],[フレーバーテキスト]]</f>
+        <v>あああああああ</v>
+      </c>
+      <c r="R73" t="str">
+        <f>テーブル5[[#This Row],[使用時テキスト]]</f>
+        <v>プレイヤーは敵を攻撃した。</v>
+      </c>
+      <c r="S73" t="str">
+        <f>テーブル5[[#This Row],[画像リンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+      <c r="T73" t="str">
+        <f>テーブル5[[#This Row],[エフェクトリンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="str">
+        <f>テーブル5[[#This Row],[名前]]</f>
+        <v>破滅の光</v>
+      </c>
+      <c r="C74" t="str">
+        <f>テーブル5[[#This Row],[消費ステータス]]</f>
+        <v>MP</v>
+      </c>
+      <c r="D74">
+        <f>テーブル5[[#This Row],[消費量]]</f>
+        <v>0</v>
+      </c>
+      <c r="E74" t="str">
+        <f>テーブル5[[#This Row],[攻撃側ステータス]]</f>
+        <v>INT</v>
+      </c>
+      <c r="F74">
+        <f>テーブル5[[#This Row],[攻撃側倍率]]</f>
+        <v>3</v>
+      </c>
+      <c r="G74" t="str">
+        <f>テーブル5[[#This Row],[防御側ステータス]]</f>
+        <v>MND</v>
+      </c>
+      <c r="H74">
+        <f>テーブル5[[#This Row],[防御側倍率]]</f>
+        <v>1</v>
+      </c>
+      <c r="I74" t="str">
+        <f>テーブル5[[#This Row],[属性]]</f>
+        <v>Light</v>
+      </c>
+      <c r="J74" t="str">
+        <f>テーブル5[[#This Row],[分類]]</f>
+        <v>Attack</v>
+      </c>
+      <c r="K74" t="str">
+        <f>テーブル5[[#This Row],[使用対象]]</f>
+        <v>ally_Once</v>
+      </c>
+      <c r="L74">
+        <f>テーブル5[[#This Row],[命中率]]</f>
+        <v>100</v>
+      </c>
+      <c r="M74">
+        <f>テーブル5[[#This Row],[会心確率]]</f>
+        <v>5</v>
+      </c>
+      <c r="N74">
+        <f>テーブル5[[#This Row],[会心倍率]]</f>
+        <v>150</v>
+      </c>
+      <c r="O74" t="str">
+        <f>テーブル5[[#This Row],[追加効果]]</f>
+        <v>none</v>
+      </c>
+      <c r="P74" t="str">
+        <f>テーブル5[[#This Row],[説明文]]</f>
+        <v>あああああああああ</v>
+      </c>
+      <c r="Q74" t="str">
+        <f>テーブル5[[#This Row],[フレーバーテキスト]]</f>
+        <v>あああああああ</v>
+      </c>
+      <c r="R74" t="str">
+        <f>テーブル5[[#This Row],[使用時テキスト]]</f>
+        <v>プレイヤーは敵を攻撃した。</v>
+      </c>
+      <c r="S74" t="str">
+        <f>テーブル5[[#This Row],[画像リンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+      <c r="T74" t="str">
+        <f>テーブル5[[#This Row],[エフェクトリンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="str">
+        <f>テーブル5[[#This Row],[名前]]</f>
+        <v>黒呪撃</v>
+      </c>
+      <c r="C75" t="str">
+        <f>テーブル5[[#This Row],[消費ステータス]]</f>
+        <v>MP</v>
+      </c>
+      <c r="D75">
+        <f>テーブル5[[#This Row],[消費量]]</f>
+        <v>0</v>
+      </c>
+      <c r="E75" t="str">
+        <f>テーブル5[[#This Row],[攻撃側ステータス]]</f>
+        <v>STR</v>
+      </c>
+      <c r="F75">
+        <f>テーブル5[[#This Row],[攻撃側倍率]]</f>
+        <v>3</v>
+      </c>
+      <c r="G75" t="str">
+        <f>テーブル5[[#This Row],[防御側ステータス]]</f>
+        <v>DEF</v>
+      </c>
+      <c r="H75">
+        <f>テーブル5[[#This Row],[防御側倍率]]</f>
+        <v>1</v>
+      </c>
+      <c r="I75" t="str">
+        <f>テーブル5[[#This Row],[属性]]</f>
+        <v>Dark</v>
+      </c>
+      <c r="J75" t="str">
+        <f>テーブル5[[#This Row],[分類]]</f>
+        <v>Attack</v>
+      </c>
+      <c r="K75" t="str">
+        <f>テーブル5[[#This Row],[使用対象]]</f>
+        <v>ally_Once</v>
+      </c>
+      <c r="L75">
+        <f>テーブル5[[#This Row],[命中率]]</f>
+        <v>100</v>
+      </c>
+      <c r="M75">
+        <f>テーブル5[[#This Row],[会心確率]]</f>
+        <v>5</v>
+      </c>
+      <c r="N75">
+        <f>テーブル5[[#This Row],[会心倍率]]</f>
+        <v>150</v>
+      </c>
+      <c r="O75" t="str">
+        <f>テーブル5[[#This Row],[追加効果]]</f>
+        <v>none</v>
+      </c>
+      <c r="P75" t="str">
+        <f>テーブル5[[#This Row],[説明文]]</f>
+        <v>あああああああああ</v>
+      </c>
+      <c r="Q75" t="str">
+        <f>テーブル5[[#This Row],[フレーバーテキスト]]</f>
+        <v>あああああああ</v>
+      </c>
+      <c r="R75" t="str">
+        <f>テーブル5[[#This Row],[使用時テキスト]]</f>
+        <v>プレイヤーは敵を攻撃した。</v>
+      </c>
+      <c r="S75" t="str">
+        <f>テーブル5[[#This Row],[画像リンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+      <c r="T75" t="str">
+        <f>テーブル5[[#This Row],[エフェクトリンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="str">
+        <f>テーブル5[[#This Row],[名前]]</f>
+        <v>ナイトバースト</v>
+      </c>
+      <c r="C76" t="str">
+        <f>テーブル5[[#This Row],[消費ステータス]]</f>
+        <v>MP</v>
+      </c>
+      <c r="D76">
+        <f>テーブル5[[#This Row],[消費量]]</f>
+        <v>0</v>
+      </c>
+      <c r="E76" t="str">
+        <f>テーブル5[[#This Row],[攻撃側ステータス]]</f>
+        <v>INT</v>
+      </c>
+      <c r="F76">
+        <f>テーブル5[[#This Row],[攻撃側倍率]]</f>
+        <v>3</v>
+      </c>
+      <c r="G76" t="str">
+        <f>テーブル5[[#This Row],[防御側ステータス]]</f>
+        <v>MND</v>
+      </c>
+      <c r="H76">
+        <f>テーブル5[[#This Row],[防御側倍率]]</f>
+        <v>1</v>
+      </c>
+      <c r="I76" t="str">
+        <f>テーブル5[[#This Row],[属性]]</f>
+        <v>Dark</v>
+      </c>
+      <c r="J76" t="str">
+        <f>テーブル5[[#This Row],[分類]]</f>
+        <v>Attack</v>
+      </c>
+      <c r="K76" t="str">
+        <f>テーブル5[[#This Row],[使用対象]]</f>
+        <v>ally_Once</v>
+      </c>
+      <c r="L76">
+        <f>テーブル5[[#This Row],[命中率]]</f>
+        <v>100</v>
+      </c>
+      <c r="M76">
+        <f>テーブル5[[#This Row],[会心確率]]</f>
+        <v>5</v>
+      </c>
+      <c r="N76">
+        <f>テーブル5[[#This Row],[会心倍率]]</f>
+        <v>150</v>
+      </c>
+      <c r="O76" t="str">
+        <f>テーブル5[[#This Row],[追加効果]]</f>
+        <v>none</v>
+      </c>
+      <c r="P76" t="str">
+        <f>テーブル5[[#This Row],[説明文]]</f>
+        <v>あああああああああ</v>
+      </c>
+      <c r="Q76" t="str">
+        <f>テーブル5[[#This Row],[フレーバーテキスト]]</f>
+        <v>あああああああ</v>
+      </c>
+      <c r="R76" t="str">
+        <f>テーブル5[[#This Row],[使用時テキスト]]</f>
+        <v>プレイヤーは敵を攻撃した。</v>
+      </c>
+      <c r="S76" t="str">
+        <f>テーブル5[[#This Row],[画像リンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+      <c r="T76" t="str">
+        <f>テーブル5[[#This Row],[エフェクトリンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="str">
+        <f>テーブル5[[#This Row],[名前]]</f>
+        <v>スキル3</v>
+      </c>
+      <c r="C77" t="str">
+        <f>テーブル5[[#This Row],[消費ステータス]]</f>
+        <v>MP</v>
+      </c>
+      <c r="D77">
+        <f>テーブル5[[#This Row],[消費量]]</f>
+        <v>0</v>
+      </c>
+      <c r="E77" t="str">
+        <f>テーブル5[[#This Row],[攻撃側ステータス]]</f>
+        <v>STR</v>
+      </c>
+      <c r="F77">
+        <f>テーブル5[[#This Row],[攻撃側倍率]]</f>
+        <v>3</v>
+      </c>
+      <c r="G77" t="str">
+        <f>テーブル5[[#This Row],[防御側ステータス]]</f>
+        <v>DEF</v>
+      </c>
+      <c r="H77">
+        <f>テーブル5[[#This Row],[防御側倍率]]</f>
+        <v>1</v>
+      </c>
+      <c r="I77" t="str">
+        <f>テーブル5[[#This Row],[属性]]</f>
+        <v>Dark</v>
+      </c>
+      <c r="J77" t="str">
+        <f>テーブル5[[#This Row],[分類]]</f>
+        <v>Attack</v>
+      </c>
+      <c r="K77" t="str">
+        <f>テーブル5[[#This Row],[使用対象]]</f>
+        <v>ally_Once</v>
+      </c>
+      <c r="L77">
+        <f>テーブル5[[#This Row],[命中率]]</f>
+        <v>100</v>
+      </c>
+      <c r="M77">
+        <f>テーブル5[[#This Row],[会心確率]]</f>
+        <v>5</v>
+      </c>
+      <c r="N77">
+        <f>テーブル5[[#This Row],[会心倍率]]</f>
+        <v>150</v>
+      </c>
+      <c r="O77" t="str">
+        <f>テーブル5[[#This Row],[追加効果]]</f>
+        <v>none</v>
+      </c>
+      <c r="P77" t="str">
+        <f>テーブル5[[#This Row],[説明文]]</f>
+        <v>あああああああああ</v>
+      </c>
+      <c r="Q77" t="str">
+        <f>テーブル5[[#This Row],[フレーバーテキスト]]</f>
+        <v>あああああああ</v>
+      </c>
+      <c r="R77" t="str">
+        <f>テーブル5[[#This Row],[使用時テキスト]]</f>
+        <v>プレイヤーは敵を攻撃した。</v>
+      </c>
+      <c r="S77" t="str">
+        <f>テーブル5[[#This Row],[画像リンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+      <c r="T77" t="str">
+        <f>テーブル5[[#This Row],[エフェクトリンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="str">
+        <f>テーブル5[[#This Row],[名前]]</f>
+        <v>イクリプス</v>
+      </c>
+      <c r="C78" t="str">
+        <f>テーブル5[[#This Row],[消費ステータス]]</f>
+        <v>MP</v>
+      </c>
+      <c r="D78">
+        <f>テーブル5[[#This Row],[消費量]]</f>
+        <v>0</v>
+      </c>
+      <c r="E78" t="str">
+        <f>テーブル5[[#This Row],[攻撃側ステータス]]</f>
+        <v>INT</v>
+      </c>
+      <c r="F78">
+        <f>テーブル5[[#This Row],[攻撃側倍率]]</f>
+        <v>3</v>
+      </c>
+      <c r="G78" t="str">
+        <f>テーブル5[[#This Row],[防御側ステータス]]</f>
+        <v>MND</v>
+      </c>
+      <c r="H78">
+        <f>テーブル5[[#This Row],[防御側倍率]]</f>
+        <v>1</v>
+      </c>
+      <c r="I78" t="str">
+        <f>テーブル5[[#This Row],[属性]]</f>
+        <v>Dark</v>
+      </c>
+      <c r="J78" t="str">
+        <f>テーブル5[[#This Row],[分類]]</f>
+        <v>Attack</v>
+      </c>
+      <c r="K78" t="str">
+        <f>テーブル5[[#This Row],[使用対象]]</f>
+        <v>ally_Once</v>
+      </c>
+      <c r="L78">
+        <f>テーブル5[[#This Row],[命中率]]</f>
+        <v>100</v>
+      </c>
+      <c r="M78">
+        <f>テーブル5[[#This Row],[会心確率]]</f>
+        <v>5</v>
+      </c>
+      <c r="N78">
+        <f>テーブル5[[#This Row],[会心倍率]]</f>
+        <v>150</v>
+      </c>
+      <c r="O78" t="str">
+        <f>テーブル5[[#This Row],[追加効果]]</f>
+        <v>none</v>
+      </c>
+      <c r="P78" t="str">
+        <f>テーブル5[[#This Row],[説明文]]</f>
+        <v>あああああああああ</v>
+      </c>
+      <c r="Q78" t="str">
+        <f>テーブル5[[#This Row],[フレーバーテキスト]]</f>
+        <v>あああああああ</v>
+      </c>
+      <c r="R78" t="str">
+        <f>テーブル5[[#This Row],[使用時テキスト]]</f>
+        <v>プレイヤーは敵を攻撃した。</v>
+      </c>
+      <c r="S78" t="str">
+        <f>テーブル5[[#This Row],[画像リンク]]</f>
+        <v>aaaaa/aa.png</v>
+      </c>
+      <c r="T78" t="str">
         <f>テーブル5[[#This Row],[エフェクトリンク]]</f>
         <v>aaaaa/aa.png</v>
       </c>
@@ -11216,11 +13360,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BA76EF-CD07-4274-9B16-8E4010CD844D}">
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:T78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -11248,58 +13392,58 @@
         <v>29</v>
       </c>
       <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" t="s">
         <v>115</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>116</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>117</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>118</v>
-      </c>
-      <c r="G1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K1" t="s">
-        <v>123</v>
       </c>
       <c r="L1" t="s">
         <v>36</v>
       </c>
       <c r="M1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N1" t="s">
         <v>39</v>
       </c>
       <c r="O1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="P1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Q1" t="s">
         <v>60</v>
       </c>
       <c r="R1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="S1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="T1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -11307,7 +13451,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>5</v>
@@ -11316,25 +13460,25 @@
         <v>10</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F2" s="9">
         <v>3</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H2" s="9">
         <v>1</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L2" s="9">
         <v>100</v>
@@ -11346,16 +13490,16 @@
         <v>150</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>132</v>
+        <v>263</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>56</v>
@@ -11369,7 +13513,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>5</v>
@@ -11378,25 +13522,25 @@
         <v>10</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F3" s="9">
         <v>3</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H3" s="9">
         <v>1</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L3" s="9">
         <v>100</v>
@@ -11408,16 +13552,16 @@
         <v>150</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>132</v>
+        <v>263</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>56</v>
@@ -11431,7 +13575,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>4</v>
@@ -11440,25 +13584,25 @@
         <v>10</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F4" s="9">
         <v>3</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H4" s="9">
         <v>1</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L4" s="9">
         <v>100</v>
@@ -11470,16 +13614,16 @@
         <v>150</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>56</v>
@@ -11493,7 +13637,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>5</v>
@@ -11502,25 +13646,25 @@
         <v>10</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F5" s="9">
         <v>3</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H5" s="9">
         <v>1</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L5" s="9">
         <v>100</v>
@@ -11532,16 +13676,16 @@
         <v>150</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>56</v>
@@ -11555,7 +13699,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>5</v>
@@ -11564,25 +13708,25 @@
         <v>10</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F6" s="9">
         <v>3</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H6" s="9">
         <v>1</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L6" s="9">
         <v>100</v>
@@ -11594,16 +13738,16 @@
         <v>150</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="S6" s="9" t="s">
         <v>56</v>
@@ -11617,7 +13761,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>5</v>
@@ -11626,25 +13770,25 @@
         <v>10</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="F7" s="9">
         <v>3</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H7" s="9">
         <v>1</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L7" s="9">
         <v>100</v>
@@ -11656,16 +13800,16 @@
         <v>150</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>56</v>
@@ -11679,7 +13823,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>5</v>
@@ -11688,25 +13832,25 @@
         <v>10</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F8" s="9">
         <v>3</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H8" s="9">
         <v>1</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L8" s="9">
         <v>100</v>
@@ -11718,16 +13862,16 @@
         <v>150</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>132</v>
+        <v>260</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>56</v>
@@ -11741,7 +13885,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>5</v>
@@ -11750,25 +13894,25 @@
         <v>10</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F9" s="9">
         <v>3</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H9" s="9">
         <v>1</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L9" s="9">
         <v>100</v>
@@ -11780,16 +13924,16 @@
         <v>150</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>132</v>
+        <v>258</v>
       </c>
       <c r="S9" s="9" t="s">
         <v>56</v>
@@ -11803,7 +13947,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>5</v>
@@ -11812,25 +13956,25 @@
         <v>10</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F10" s="9">
         <v>3</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H10" s="9">
         <v>1</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L10" s="9">
         <v>100</v>
@@ -11842,16 +13986,16 @@
         <v>150</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S10" s="9" t="s">
         <v>56</v>
@@ -11865,7 +14009,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>5</v>
@@ -11874,25 +14018,25 @@
         <v>10</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F11" s="9">
         <v>3</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H11" s="9">
         <v>1</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L11" s="9">
         <v>100</v>
@@ -11904,16 +14048,16 @@
         <v>150</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S11" s="9" t="s">
         <v>56</v>
@@ -11927,7 +14071,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>5</v>
@@ -11936,25 +14080,25 @@
         <v>10</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F12" s="9">
         <v>3</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H12" s="9">
         <v>1</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L12" s="9">
         <v>100</v>
@@ -11966,16 +14110,16 @@
         <v>150</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>132</v>
+        <v>262</v>
       </c>
       <c r="S12" s="9" t="s">
         <v>56</v>
@@ -11989,7 +14133,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>5</v>
@@ -11998,25 +14142,25 @@
         <v>10</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F13" s="9">
         <v>3</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H13" s="9">
         <v>1</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L13" s="9">
         <v>100</v>
@@ -12028,16 +14172,16 @@
         <v>150</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>132</v>
+        <v>261</v>
       </c>
       <c r="S13" s="9" t="s">
         <v>56</v>
@@ -12051,7 +14195,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>4</v>
@@ -12060,25 +14204,25 @@
         <v>10</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F14" s="8">
         <v>3</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H14" s="8">
         <v>1</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L14" s="8">
         <v>100</v>
@@ -12090,16 +14234,16 @@
         <v>150</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S14" s="8" t="s">
         <v>56</v>
@@ -12113,7 +14257,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>4</v>
@@ -12122,25 +14266,25 @@
         <v>10</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F15" s="8">
         <v>3</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H15" s="8">
         <v>1</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L15" s="8">
         <v>100</v>
@@ -12152,16 +14296,16 @@
         <v>150</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S15" s="8" t="s">
         <v>56</v>
@@ -12175,7 +14319,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>4</v>
@@ -12184,25 +14328,25 @@
         <v>10</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F16" s="8">
         <v>3</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H16" s="8">
         <v>1</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L16" s="8">
         <v>100</v>
@@ -12214,16 +14358,16 @@
         <v>150</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S16" s="8" t="s">
         <v>56</v>
@@ -12237,7 +14381,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>4</v>
@@ -12246,25 +14390,25 @@
         <v>10</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F17" s="8">
         <v>3</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H17" s="8">
         <v>1</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L17" s="8">
         <v>100</v>
@@ -12276,16 +14420,16 @@
         <v>150</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>132</v>
+        <v>265</v>
       </c>
       <c r="S17" s="8" t="s">
         <v>56</v>
@@ -12299,7 +14443,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -12308,26 +14452,26 @@
         <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F18" s="1">
         <v>3</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
       </c>
       <c r="I18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="L18" s="1">
         <v>100</v>
       </c>
@@ -12338,16 +14482,16 @@
         <v>150</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>56</v>
@@ -12361,7 +14505,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -12370,26 +14514,26 @@
         <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F19" s="1">
         <v>3</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H19" s="1">
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="L19" s="1">
         <v>100</v>
       </c>
@@ -12400,16 +14544,16 @@
         <v>150</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>56</v>
@@ -12423,7 +14567,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -12432,26 +14576,26 @@
         <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F20" s="1">
         <v>3</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H20" s="1">
         <v>1</v>
       </c>
       <c r="I20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="L20" s="1">
         <v>100</v>
       </c>
@@ -12462,16 +14606,16 @@
         <v>150</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>56</v>
@@ -12485,7 +14629,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -12494,26 +14638,26 @@
         <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F21" s="1">
         <v>3</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H21" s="1">
         <v>1</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="L21" s="1">
         <v>100</v>
       </c>
@@ -12524,16 +14668,16 @@
         <v>150</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>56</v>
@@ -12547,34 +14691,34 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D22" s="2">
         <v>10</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F22" s="2">
         <v>3</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H22" s="2">
         <v>1</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L22" s="2">
         <v>100</v>
@@ -12586,16 +14730,16 @@
         <v>150</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S22" s="2" t="s">
         <v>56</v>
@@ -12609,34 +14753,34 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D23" s="2">
         <v>10</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F23" s="2">
         <v>3</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L23" s="2">
         <v>100</v>
@@ -12648,16 +14792,16 @@
         <v>150</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S23" s="2" t="s">
         <v>56</v>
@@ -12671,34 +14815,34 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D24" s="2">
         <v>10</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F24" s="2">
         <v>3</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H24" s="2">
         <v>1</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L24" s="2">
         <v>100</v>
@@ -12710,16 +14854,16 @@
         <v>150</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S24" s="2" t="s">
         <v>56</v>
@@ -12733,34 +14877,34 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D25" s="2">
         <v>10</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F25" s="2">
         <v>3</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H25" s="2">
         <v>1</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L25" s="2">
         <v>100</v>
@@ -12772,16 +14916,16 @@
         <v>150</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S25" s="2" t="s">
         <v>56</v>
@@ -12795,34 +14939,34 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D26" s="3">
         <v>10</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F26" s="3">
         <v>3</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L26" s="3">
         <v>100</v>
@@ -12834,16 +14978,16 @@
         <v>150</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>56</v>
@@ -12857,34 +15001,34 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D27" s="3">
         <v>10</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F27" s="3">
         <v>3</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L27" s="3">
         <v>100</v>
@@ -12896,16 +15040,16 @@
         <v>150</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>56</v>
@@ -12919,34 +15063,34 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D28" s="3">
         <v>10</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F28" s="3">
         <v>3</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H28" s="3">
         <v>1</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L28" s="3">
         <v>100</v>
@@ -12958,16 +15102,16 @@
         <v>150</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>56</v>
@@ -12981,34 +15125,34 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D29" s="3">
         <v>10</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F29" s="3">
         <v>3</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L29" s="3">
         <v>100</v>
@@ -13020,16 +15164,16 @@
         <v>150</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>56</v>
@@ -13043,34 +15187,34 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D30" s="4">
         <v>10</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F30" s="4">
         <v>3</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H30" s="4">
         <v>1</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L30" s="4">
         <v>100</v>
@@ -13082,16 +15226,16 @@
         <v>150</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S30" s="4" t="s">
         <v>56</v>
@@ -13105,34 +15249,34 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D31" s="4">
         <v>10</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F31" s="4">
         <v>3</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H31" s="4">
         <v>1</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L31" s="4">
         <v>100</v>
@@ -13144,16 +15288,16 @@
         <v>150</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S31" s="4" t="s">
         <v>56</v>
@@ -13167,34 +15311,34 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D32" s="4">
         <v>10</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F32" s="4">
         <v>3</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H32" s="4">
         <v>1</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L32" s="4">
         <v>100</v>
@@ -13206,16 +15350,16 @@
         <v>150</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S32" s="4" t="s">
         <v>56</v>
@@ -13229,34 +15373,34 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D33" s="4">
         <v>10</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F33" s="4">
         <v>3</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H33" s="4">
         <v>1</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L33" s="4">
         <v>100</v>
@@ -13268,16 +15412,16 @@
         <v>150</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>132</v>
+        <v>266</v>
       </c>
       <c r="S33" s="4" t="s">
         <v>56</v>
@@ -13291,34 +15435,34 @@
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D34" s="5">
         <v>10</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F34" s="5">
         <v>3</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H34" s="5">
         <v>1</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L34" s="5">
         <v>100</v>
@@ -13330,16 +15474,16 @@
         <v>150</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S34" s="5" t="s">
         <v>56</v>
@@ -13353,34 +15497,34 @@
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D35" s="5">
         <v>10</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F35" s="5">
         <v>3</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H35" s="5">
         <v>1</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L35" s="5">
         <v>100</v>
@@ -13392,16 +15536,16 @@
         <v>150</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S35" s="5" t="s">
         <v>56</v>
@@ -13415,34 +15559,34 @@
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D36" s="5">
         <v>10</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F36" s="5">
         <v>3</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H36" s="5">
         <v>1</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L36" s="5">
         <v>100</v>
@@ -13454,16 +15598,16 @@
         <v>150</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R36" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S36" s="5" t="s">
         <v>56</v>
@@ -13477,34 +15621,34 @@
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D37" s="5">
         <v>10</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F37" s="5">
         <v>3</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H37" s="5">
         <v>1</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L37" s="5">
         <v>100</v>
@@ -13516,16 +15660,16 @@
         <v>150</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R37" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S37" s="5" t="s">
         <v>56</v>
@@ -13539,7 +15683,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>4</v>
@@ -13548,25 +15692,25 @@
         <v>10</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F38" s="6">
         <v>3</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H38" s="6">
         <v>0</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="L38" s="6">
         <v>100</v>
@@ -13578,16 +15722,16 @@
         <v>150</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R38" s="6" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="S38" s="6" t="s">
         <v>56</v>
@@ -13601,7 +15745,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>5</v>
@@ -13610,25 +15754,25 @@
         <v>10</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F39" s="6">
         <v>3</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H39" s="6">
         <v>0</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="L39" s="6">
         <v>100</v>
@@ -13640,16 +15784,16 @@
         <v>150</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S39" s="6" t="s">
         <v>56</v>
@@ -13663,7 +15807,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>5</v>
@@ -13672,25 +15816,25 @@
         <v>10</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F40" s="6">
         <v>3</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H40" s="6">
         <v>0</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="L40" s="6">
         <v>100</v>
@@ -13702,16 +15846,16 @@
         <v>150</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q40" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R40" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S40" s="6" t="s">
         <v>56</v>
@@ -13725,7 +15869,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>5</v>
@@ -13734,25 +15878,25 @@
         <v>10</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F41" s="6">
         <v>3</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H41" s="6">
         <v>0</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="L41" s="6">
         <v>100</v>
@@ -13764,16 +15908,16 @@
         <v>150</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P41" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q41" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R41" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S41" s="6" t="s">
         <v>56</v>
@@ -13787,7 +15931,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>5</v>
@@ -13796,25 +15940,25 @@
         <v>10</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F42" s="6">
         <v>3</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H42" s="6">
         <v>0</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="L42" s="6">
         <v>100</v>
@@ -13826,16 +15970,16 @@
         <v>150</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P42" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q42" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R42" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S42" s="6" t="s">
         <v>56</v>
@@ -13849,7 +15993,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>5</v>
@@ -13858,25 +16002,25 @@
         <v>10</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F43" s="6">
         <v>0</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H43" s="6">
         <v>0</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="L43" s="6">
         <v>100</v>
@@ -13888,16 +16032,16 @@
         <v>150</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q43" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R43" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S43" s="6" t="s">
         <v>56</v>
@@ -13911,7 +16055,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>5</v>
@@ -13920,25 +16064,25 @@
         <v>10</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F44" s="6">
         <v>0</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H44" s="6">
         <v>0</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="L44" s="6">
         <v>100</v>
@@ -13950,16 +16094,16 @@
         <v>150</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="P44" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q44" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R44" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S44" s="6" t="s">
         <v>56</v>
@@ -13973,7 +16117,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>5</v>
@@ -13982,25 +16126,25 @@
         <v>10</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F45" s="6">
         <v>0</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H45" s="6">
         <v>0</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="L45" s="6">
         <v>100</v>
@@ -14012,16 +16156,16 @@
         <v>150</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q45" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R45" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S45" s="6" t="s">
         <v>56</v>
@@ -14035,7 +16179,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>5</v>
@@ -14044,25 +16188,25 @@
         <v>10</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F46" s="6">
         <v>3</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H46" s="6">
         <v>0</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="L46" s="6">
         <v>100</v>
@@ -14074,16 +16218,16 @@
         <v>150</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R46" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S46" s="6" t="s">
         <v>56</v>
@@ -14097,7 +16241,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>5</v>
@@ -14106,25 +16250,25 @@
         <v>10</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F47" s="7">
         <v>0</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="L47" s="7">
         <v>100</v>
@@ -14136,16 +16280,16 @@
         <v>150</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R47" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S47" s="7" t="s">
         <v>56</v>
@@ -14159,7 +16303,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>5</v>
@@ -14168,25 +16312,25 @@
         <v>10</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F48" s="7">
         <v>0</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="L48" s="7">
         <v>100</v>
@@ -14198,16 +16342,16 @@
         <v>150</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R48" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S48" s="7" t="s">
         <v>56</v>
@@ -14221,7 +16365,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>5</v>
@@ -14230,25 +16374,25 @@
         <v>10</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F49" s="7">
         <v>0</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="L49" s="7">
         <v>100</v>
@@ -14260,16 +16404,16 @@
         <v>150</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R49" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S49" s="7" t="s">
         <v>56</v>
@@ -14283,7 +16427,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>5</v>
@@ -14292,25 +16436,25 @@
         <v>10</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F50" s="7">
         <v>0</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="L50" s="7">
         <v>100</v>
@@ -14322,16 +16466,16 @@
         <v>150</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R50" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S50" s="7" t="s">
         <v>56</v>
@@ -14345,7 +16489,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>5</v>
@@ -14354,25 +16498,25 @@
         <v>10</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F51" s="7">
         <v>0</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="L51" s="7">
         <v>100</v>
@@ -14384,16 +16528,16 @@
         <v>150</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R51" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S51" s="7" t="s">
         <v>56</v>
@@ -14407,7 +16551,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>5</v>
@@ -14416,25 +16560,25 @@
         <v>10</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F52" s="7">
         <v>0</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="L52" s="7">
         <v>100</v>
@@ -14446,16 +16590,16 @@
         <v>150</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R52" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S52" s="7" t="s">
         <v>56</v>
@@ -14469,7 +16613,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>5</v>
@@ -14478,25 +16622,25 @@
         <v>10</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F53" s="7">
         <v>0</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="L53" s="7">
         <v>100</v>
@@ -14508,16 +16652,16 @@
         <v>150</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R53" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S53" s="7" t="s">
         <v>56</v>
@@ -14531,7 +16675,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>5</v>
@@ -14540,25 +16684,25 @@
         <v>10</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F54" s="7">
         <v>0</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="L54" s="7">
         <v>100</v>
@@ -14570,21 +16714,1509 @@
         <v>150</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R54" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S54" s="7" t="s">
         <v>56</v>
       </c>
       <c r="T54" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" s="11">
+        <v>53</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="11">
+        <v>0</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F55" s="8">
+        <v>3</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H55" s="11">
+        <v>1</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L55" s="11">
+        <v>100</v>
+      </c>
+      <c r="M55" s="11">
+        <v>5</v>
+      </c>
+      <c r="N55" s="11">
+        <v>150</v>
+      </c>
+      <c r="O55" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="P55" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q55" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="R55" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="S55" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T55" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56" s="11">
+        <v>54</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="11">
+        <v>0</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F56" s="8">
+        <v>3</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H56" s="11">
+        <v>1</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L56" s="11">
+        <v>100</v>
+      </c>
+      <c r="M56" s="11">
+        <v>5</v>
+      </c>
+      <c r="N56" s="11">
+        <v>150</v>
+      </c>
+      <c r="O56" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="P56" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q56" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="R56" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="S56" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T56" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57" s="11">
+        <v>55</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="11">
+        <v>0</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F57" s="8">
+        <v>3</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H57" s="11">
+        <v>1</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L57" s="11">
+        <v>100</v>
+      </c>
+      <c r="M57" s="11">
+        <v>5</v>
+      </c>
+      <c r="N57" s="11">
+        <v>150</v>
+      </c>
+      <c r="O57" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="P57" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q57" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="R57" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="S57" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T57" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58" s="11">
+        <v>56</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="11">
+        <v>0</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F58" s="8">
+        <v>3</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H58" s="11">
+        <v>1</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L58" s="11">
+        <v>100</v>
+      </c>
+      <c r="M58" s="11">
+        <v>5</v>
+      </c>
+      <c r="N58" s="11">
+        <v>150</v>
+      </c>
+      <c r="O58" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="P58" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q58" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="R58" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="S58" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T58" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59" s="11">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="11">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F59" s="1">
+        <v>3</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H59" s="11">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="K59" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L59" s="11">
+        <v>100</v>
+      </c>
+      <c r="M59" s="11">
+        <v>5</v>
+      </c>
+      <c r="N59" s="11">
+        <v>150</v>
+      </c>
+      <c r="O59" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="P59" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q59" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="R59" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="S59" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T59" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
+      <c r="A60" s="11">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="11">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F60" s="1">
+        <v>3</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H60" s="11">
+        <v>1</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L60" s="11">
+        <v>100</v>
+      </c>
+      <c r="M60" s="11">
+        <v>5</v>
+      </c>
+      <c r="N60" s="11">
+        <v>150</v>
+      </c>
+      <c r="O60" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="P60" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q60" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="R60" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="S60" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T60" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="A61" s="11">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="11">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F61" s="1">
+        <v>3</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H61" s="11">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L61" s="11">
+        <v>100</v>
+      </c>
+      <c r="M61" s="11">
+        <v>5</v>
+      </c>
+      <c r="N61" s="11">
+        <v>150</v>
+      </c>
+      <c r="O61" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="P61" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q61" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="R61" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="S61" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T61" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62" s="11">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="11">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F62" s="1">
+        <v>3</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H62" s="11">
+        <v>1</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L62" s="11">
+        <v>100</v>
+      </c>
+      <c r="M62" s="11">
+        <v>5</v>
+      </c>
+      <c r="N62" s="11">
+        <v>150</v>
+      </c>
+      <c r="O62" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="P62" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q62" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="R62" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="S62" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T62" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="A63" s="11">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="11">
+        <v>0</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F63" s="2">
+        <v>3</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H63" s="11">
+        <v>1</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L63" s="11">
+        <v>100</v>
+      </c>
+      <c r="M63" s="11">
+        <v>5</v>
+      </c>
+      <c r="N63" s="11">
+        <v>150</v>
+      </c>
+      <c r="O63" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="P63" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q63" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="R63" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="S63" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T63" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="A64" s="11">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="11">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F64" s="2">
+        <v>3</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H64" s="11">
+        <v>1</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L64" s="11">
+        <v>100</v>
+      </c>
+      <c r="M64" s="11">
+        <v>5</v>
+      </c>
+      <c r="N64" s="11">
+        <v>150</v>
+      </c>
+      <c r="O64" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="P64" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q64" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="R64" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="S64" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T64" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65" s="11">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="11">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F65" s="2">
+        <v>3</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H65" s="11">
+        <v>1</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="K65" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L65" s="11">
+        <v>100</v>
+      </c>
+      <c r="M65" s="11">
+        <v>5</v>
+      </c>
+      <c r="N65" s="11">
+        <v>150</v>
+      </c>
+      <c r="O65" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="P65" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q65" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="R65" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="S65" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T65" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="A66" s="11">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="11">
+        <v>0</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F66" s="2">
+        <v>3</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H66" s="11">
+        <v>1</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="K66" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L66" s="11">
+        <v>100</v>
+      </c>
+      <c r="M66" s="11">
+        <v>5</v>
+      </c>
+      <c r="N66" s="11">
+        <v>150</v>
+      </c>
+      <c r="O66" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="P66" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q66" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="R66" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="S66" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T66" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="A67" s="11">
+        <v>65</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="11">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F67" s="3">
+        <v>3</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H67" s="11">
+        <v>1</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L67" s="11">
+        <v>100</v>
+      </c>
+      <c r="M67" s="11">
+        <v>5</v>
+      </c>
+      <c r="N67" s="11">
+        <v>150</v>
+      </c>
+      <c r="O67" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="P67" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q67" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="R67" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="S67" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T67" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="A68" s="11">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="11">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F68" s="3">
+        <v>3</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H68" s="11">
+        <v>1</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L68" s="11">
+        <v>100</v>
+      </c>
+      <c r="M68" s="11">
+        <v>5</v>
+      </c>
+      <c r="N68" s="11">
+        <v>150</v>
+      </c>
+      <c r="O68" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="P68" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q68" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="R68" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="S68" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T68" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="A69" s="11">
+        <v>67</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="11">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="3">
+        <v>3</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H69" s="11">
+        <v>1</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L69" s="11">
+        <v>100</v>
+      </c>
+      <c r="M69" s="11">
+        <v>5</v>
+      </c>
+      <c r="N69" s="11">
+        <v>150</v>
+      </c>
+      <c r="O69" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="P69" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q69" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="R69" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="S69" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T69" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
+      <c r="A70" s="11">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="11">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F70" s="3">
+        <v>3</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H70" s="11">
+        <v>1</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L70" s="11">
+        <v>100</v>
+      </c>
+      <c r="M70" s="11">
+        <v>5</v>
+      </c>
+      <c r="N70" s="11">
+        <v>150</v>
+      </c>
+      <c r="O70" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="P70" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q70" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="R70" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="S70" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T70" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
+      <c r="A71" s="11">
+        <v>69</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="11">
+        <v>0</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F71" s="4">
+        <v>3</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H71" s="11">
+        <v>1</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L71" s="11">
+        <v>100</v>
+      </c>
+      <c r="M71" s="11">
+        <v>5</v>
+      </c>
+      <c r="N71" s="11">
+        <v>150</v>
+      </c>
+      <c r="O71" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="P71" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q71" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="R71" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="S71" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T71" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="A72" s="11">
+        <v>70</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="11">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F72" s="4">
+        <v>3</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H72" s="11">
+        <v>1</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L72" s="11">
+        <v>100</v>
+      </c>
+      <c r="M72" s="11">
+        <v>5</v>
+      </c>
+      <c r="N72" s="11">
+        <v>150</v>
+      </c>
+      <c r="O72" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="P72" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q72" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="R72" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="S72" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T72" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
+      <c r="A73" s="11">
+        <v>71</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="11">
+        <v>0</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="4">
+        <v>3</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="11">
+        <v>1</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="K73" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L73" s="11">
+        <v>100</v>
+      </c>
+      <c r="M73" s="11">
+        <v>5</v>
+      </c>
+      <c r="N73" s="11">
+        <v>150</v>
+      </c>
+      <c r="O73" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="P73" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q73" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="R73" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="S73" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T73" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
+      <c r="A74" s="11">
+        <v>72</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="11">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F74" s="4">
+        <v>3</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H74" s="11">
+        <v>1</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L74" s="11">
+        <v>100</v>
+      </c>
+      <c r="M74" s="11">
+        <v>5</v>
+      </c>
+      <c r="N74" s="11">
+        <v>150</v>
+      </c>
+      <c r="O74" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="P74" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q74" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="R74" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="S74" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T74" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
+      <c r="A75" s="11">
+        <v>73</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="11">
+        <v>0</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" s="5">
+        <v>3</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" s="11">
+        <v>1</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L75" s="11">
+        <v>100</v>
+      </c>
+      <c r="M75" s="11">
+        <v>5</v>
+      </c>
+      <c r="N75" s="11">
+        <v>150</v>
+      </c>
+      <c r="O75" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="P75" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q75" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="R75" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="S75" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T75" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
+      <c r="A76" s="11">
+        <v>74</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="11">
+        <v>0</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F76" s="5">
+        <v>3</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H76" s="11">
+        <v>1</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L76" s="11">
+        <v>100</v>
+      </c>
+      <c r="M76" s="11">
+        <v>5</v>
+      </c>
+      <c r="N76" s="11">
+        <v>150</v>
+      </c>
+      <c r="O76" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="P76" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q76" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="R76" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="S76" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T76" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
+      <c r="A77" s="11">
+        <v>75</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="11">
+        <v>0</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" s="5">
+        <v>3</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H77" s="11">
+        <v>1</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="K77" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L77" s="11">
+        <v>100</v>
+      </c>
+      <c r="M77" s="11">
+        <v>5</v>
+      </c>
+      <c r="N77" s="11">
+        <v>150</v>
+      </c>
+      <c r="O77" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="P77" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q77" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="R77" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="S77" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T77" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
+      <c r="A78" s="11">
+        <v>76</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="11">
+        <v>0</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F78" s="5">
+        <v>3</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H78" s="11">
+        <v>1</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="K78" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L78" s="11">
+        <v>100</v>
+      </c>
+      <c r="M78" s="11">
+        <v>5</v>
+      </c>
+      <c r="N78" s="11">
+        <v>150</v>
+      </c>
+      <c r="O78" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="P78" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q78" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="R78" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="S78" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T78" s="11" t="s">
         <v>56</v>
       </c>
     </row>
